--- a/NMJ Project Code/MuscleData9_17_25.xlsx
+++ b/NMJ Project Code/MuscleData9_17_25.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="52" uniqueCount="15">
   <si>
     <t>WTR2 B2</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>AveMADMax</t>
+  </si>
+  <si>
+    <t>BinToPeak</t>
+  </si>
+  <si>
+    <t>BinToRelax</t>
   </si>
 </sst>
 </file>
@@ -392,18 +398,18 @@
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="true"/>
+    <col min="1" max="1" width="13.5546875" customWidth="true"/>
     <col min="2" max="2" width="12.5546875" customWidth="true"/>
     <col min="3" max="3" width="12.5546875" customWidth="true"/>
     <col min="4" max="4" width="13.5546875" customWidth="true"/>
     <col min="5" max="5" width="12.5546875" customWidth="true"/>
-    <col min="6" max="6" width="12.5546875" customWidth="true"/>
-    <col min="7" max="7" width="12.5546875" customWidth="true"/>
-    <col min="8" max="8" width="12.5546875" customWidth="true"/>
+    <col min="6" max="6" width="14.5546875" customWidth="true"/>
+    <col min="7" max="7" width="13.5546875" customWidth="true"/>
+    <col min="8" max="8" width="13.5546875" customWidth="true"/>
     <col min="9" max="9" width="12.5546875" customWidth="true"/>
     <col min="10" max="10" width="13.5546875" customWidth="true"/>
-    <col min="11" max="11" width="12.5546875" customWidth="true"/>
-    <col min="12" max="12" width="12.5546875" customWidth="true"/>
+    <col min="11" max="11" width="13.5546875" customWidth="true"/>
+    <col min="12" max="12" width="13.5546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -446,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>3.878509924003942</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -461,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>0</v>
+        <v>2.943154248745532</v>
       </c>
       <c r="G2" s="0">
         <v>0</v>
@@ -484,7 +490,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1.4435775788722085</v>
+        <v>2.4349323451317337</v>
       </c>
       <c r="B3" s="0">
         <v>0.48927842850336428</v>
@@ -499,30 +505,30 @@
         <v>0.21546782668169898</v>
       </c>
       <c r="F3" s="0">
-        <v>1.1744987843287389</v>
+        <v>1.7686554644167931</v>
       </c>
       <c r="G3" s="0">
-        <v>1.4435775788722085</v>
+        <v>0.022165520672229464</v>
       </c>
       <c r="H3" s="0">
-        <v>0.48927842850336428</v>
+        <v>0.070803201062569099</v>
       </c>
       <c r="I3" s="0">
-        <v>0.36408242603970481</v>
+        <v>1.1524481030261315</v>
       </c>
       <c r="J3" s="0">
-        <v>0.028582049962972183</v>
+        <v>0.019514386871237334</v>
       </c>
       <c r="K3" s="0">
-        <v>0.21546782668169898</v>
+        <v>0.030210676102351248</v>
       </c>
       <c r="L3" s="0">
-        <v>1.1744987843287389</v>
+        <v>0.025808842706311008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>2.3368885733934355</v>
+        <v>1.5416213506105065</v>
       </c>
       <c r="B4" s="0">
         <v>0.49033023009671484</v>
@@ -537,30 +543,30 @@
         <v>0.21064859717848602</v>
       </c>
       <c r="F4" s="0">
-        <v>2.0011437851177738</v>
+        <v>0.9420104636277582</v>
       </c>
       <c r="G4" s="0">
-        <v>2.3368885733934355</v>
+        <v>0.11939010368140325</v>
       </c>
       <c r="H4" s="0">
-        <v>0.49033023009671484</v>
+        <v>0.072108341618597513</v>
       </c>
       <c r="I4" s="0">
-        <v>0.36465646699654752</v>
+        <v>2.2337887797233731</v>
       </c>
       <c r="J4" s="0">
-        <v>0.045633453284614274</v>
+        <v>0.029149496392300016</v>
       </c>
       <c r="K4" s="0">
-        <v>0.21064859717848602</v>
+        <v>0.074548365490341925</v>
       </c>
       <c r="L4" s="0">
-        <v>2.0011437851177738</v>
+        <v>0.029775199518127741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>2.4268565244373508</v>
+        <v>1.4516533995665912</v>
       </c>
       <c r="B5" s="0">
         <v>1.2168396581446295</v>
@@ -575,30 +581,30 @@
         <v>0.25456645618818008</v>
       </c>
       <c r="F5" s="0">
-        <v>2.4917079866426475</v>
+        <v>0.45144626210288452</v>
       </c>
       <c r="G5" s="0">
-        <v>2.4268565244373508</v>
+        <v>0.12559702128292377</v>
       </c>
       <c r="H5" s="0">
-        <v>1.2168396581446295</v>
+        <v>0.17282507286179843</v>
       </c>
       <c r="I5" s="0">
-        <v>0.36612601179319948</v>
+        <v>2.599752676006728</v>
       </c>
       <c r="J5" s="0">
-        <v>2.9636235781609099</v>
+        <v>0.036079006745464028</v>
       </c>
       <c r="K5" s="0">
-        <v>0.25456645618818008</v>
+        <v>0.11911920189586463</v>
       </c>
       <c r="L5" s="0">
-        <v>2.4917079866426475</v>
+        <v>0.032054586958519489</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>1.5539080584309808</v>
+        <v>2.3246018655729612</v>
       </c>
       <c r="B6" s="0">
         <v>0.52142458436617023</v>
@@ -613,30 +619,30 @@
         <v>0.35045739261583003</v>
       </c>
       <c r="F6" s="0">
-        <v>2.7502747823330842</v>
+        <v>0.1928794664124478</v>
       </c>
       <c r="G6" s="0">
-        <v>1.5539080584309808</v>
+        <v>0.17278115202790373</v>
       </c>
       <c r="H6" s="0">
-        <v>0.52142458436617023</v>
+        <v>0.16268433732516663</v>
       </c>
       <c r="I6" s="0">
-        <v>0.55602948438405664</v>
+        <v>2.6148432091119953</v>
       </c>
       <c r="J6" s="0">
-        <v>6.6396653344622543</v>
+        <v>0.041214866190201024</v>
       </c>
       <c r="K6" s="0">
-        <v>0.35045739261583003</v>
+        <v>0.13655255643466069</v>
       </c>
       <c r="L6" s="0">
-        <v>2.7502747823330842</v>
+        <v>0.036350059889318893</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>2.9041483405061603</v>
+        <v>0.97436158349778168</v>
       </c>
       <c r="B7" s="0">
         <v>0.35384542589457191</v>
@@ -651,30 +657,30 @@
         <v>0.35172944415600477</v>
       </c>
       <c r="F7" s="0">
-        <v>2.8464616167924173</v>
+        <v>0.096692631953114727</v>
       </c>
       <c r="G7" s="0">
-        <v>2.9041483405061603</v>
+        <v>2.3027768782005031</v>
       </c>
       <c r="H7" s="0">
-        <v>0.35384542589457191</v>
+        <v>0.19096670052663417</v>
       </c>
       <c r="I7" s="0">
-        <v>1.4975384994737069</v>
+        <v>2.4503508260568787</v>
       </c>
       <c r="J7" s="0">
-        <v>6.9414339224265911</v>
+        <v>0.06103528295744521</v>
       </c>
       <c r="K7" s="0">
-        <v>0.35172944415600477</v>
+        <v>0.15804281994934091</v>
       </c>
       <c r="L7" s="0">
-        <v>2.8464616167924173</v>
+        <v>0.045375785713192285</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>3.8326467548157033</v>
+        <v>0.045863169188238739</v>
       </c>
       <c r="B8" s="0">
         <v>0.30719182031137965</v>
@@ -689,30 +695,30 @@
         <v>0.39853958227938391</v>
       </c>
       <c r="F8" s="0">
-        <v>2.8836306058390546</v>
+        <v>0.059523642906477381</v>
       </c>
       <c r="G8" s="0">
-        <v>3.8326467548157033</v>
+        <v>2.8590780986638005</v>
       </c>
       <c r="H8" s="0">
-        <v>0.30719182031137965</v>
+        <v>0.93392371247904238</v>
       </c>
       <c r="I8" s="0">
-        <v>1.4993602088354081</v>
+        <v>2.1498688805802635</v>
       </c>
       <c r="J8" s="0">
-        <v>6.389299021012631</v>
+        <v>0.06557002011474565</v>
       </c>
       <c r="K8" s="0">
-        <v>0.39853958227938391</v>
+        <v>0.18272367270939471</v>
       </c>
       <c r="L8" s="0">
-        <v>2.8836306058390546</v>
+        <v>0.058862273838660724</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>3.878509924003942</v>
+        <v>0</v>
       </c>
       <c r="B9" s="0">
         <v>0.25817213263624822</v>
@@ -727,30 +733,30 @@
         <v>0.48732126014725075</v>
       </c>
       <c r="F9" s="0">
-        <v>2.9083754311591359</v>
+        <v>0.034778817586396116</v>
       </c>
       <c r="G9" s="0">
-        <v>3.878509924003942</v>
+        <v>2.859308801970716</v>
       </c>
       <c r="H9" s="0">
-        <v>0.25817213263624822</v>
+        <v>2.0509460563309347</v>
       </c>
       <c r="I9" s="0">
-        <v>1.4106036646458244</v>
+        <v>1.8042558116687073</v>
       </c>
       <c r="J9" s="0">
-        <v>5.8084056284830501</v>
+        <v>0.071342860314079659</v>
       </c>
       <c r="K9" s="0">
-        <v>0.48732126014725075</v>
+        <v>0.18472329976263718</v>
       </c>
       <c r="L9" s="0">
-        <v>2.9083754311591359</v>
+        <v>0.062828706685328556</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>3.7899684139188539</v>
+        <v>0.088541510085088149</v>
       </c>
       <c r="B10" s="0">
         <v>0.25707901904068298</v>
@@ -765,30 +771,30 @@
         <v>0.68697725259610987</v>
       </c>
       <c r="F10" s="0">
-        <v>2.9182991066777539</v>
+        <v>0.024855142067778058</v>
       </c>
       <c r="G10" s="0">
-        <v>3.7899684139188539</v>
+        <v>2.6910004993629451</v>
       </c>
       <c r="H10" s="0">
-        <v>0.25707901904068298</v>
+        <v>2.0512224703001189</v>
       </c>
       <c r="I10" s="0">
-        <v>1.1186988727357265</v>
+        <v>1.4627685227055491</v>
       </c>
       <c r="J10" s="0">
-        <v>4.6999989149248114</v>
+        <v>0.072529571611136406</v>
       </c>
       <c r="K10" s="0">
-        <v>0.68697725259610987</v>
+        <v>0.16870191501332379</v>
       </c>
       <c r="L10" s="0">
-        <v>2.9182991066777539</v>
+        <v>0.071400676001548785</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>3.6701848952539211</v>
+        <v>0.2083250287500209</v>
       </c>
       <c r="B11" s="0">
         <v>0.20138816698022916</v>
@@ -803,30 +809,30 @@
         <v>0.68666874608935702</v>
       </c>
       <c r="F11" s="0">
-        <v>2.9285253128059319</v>
+        <v>0.01462893593960013</v>
       </c>
       <c r="G11" s="0">
-        <v>3.6701848952539211</v>
+        <v>2.69150503813874</v>
       </c>
       <c r="H11" s="0">
-        <v>0.20138816698022916</v>
+        <v>2.1327984582807908</v>
       </c>
       <c r="I11" s="0">
-        <v>1.1174364404342831</v>
+        <v>1.1638920654469047</v>
       </c>
       <c r="J11" s="0">
-        <v>3.1279341227081683</v>
+        <v>0.073048145483612534</v>
       </c>
       <c r="K11" s="0">
-        <v>0.68666874608935702</v>
+        <v>0.14821997228053571</v>
       </c>
       <c r="L11" s="0">
-        <v>2.9285253128059319</v>
+        <v>0.085834141812915918</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>3.5939358643087473</v>
+        <v>0.28457405969519467</v>
       </c>
       <c r="B12" s="0">
         <v>1.0842949830693964</v>
@@ -841,30 +847,30 @@
         <v>0.63981057492900695</v>
       </c>
       <c r="F12" s="0">
-        <v>2.9384464286913166</v>
+        <v>0.0047078200542154391</v>
       </c>
       <c r="G12" s="0">
-        <v>3.5939358643087473</v>
+        <v>2.224505360563469</v>
       </c>
       <c r="H12" s="0">
-        <v>1.0842949830693964</v>
+        <v>1.6763703911579746</v>
       </c>
       <c r="I12" s="0">
-        <v>0.52434354422374962</v>
+        <v>0.90180254267075322</v>
       </c>
       <c r="J12" s="0">
-        <v>1.8375414676640325</v>
+        <v>0.073334700620491161</v>
       </c>
       <c r="K12" s="0">
-        <v>0.63981057492900695</v>
+        <v>0.12949494395792549</v>
       </c>
       <c r="L12" s="0">
-        <v>2.9384464286913166</v>
+        <v>0.087298679140387483</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>3.5415155006144272</v>
+        <v>0.3369944233895148</v>
       </c>
       <c r="B13" s="0">
         <v>1.08427350025185</v>
@@ -879,30 +885,30 @@
         <v>0.6392674955333425</v>
       </c>
       <c r="F13" s="0">
-        <v>2.9087972208551665</v>
+        <v>0.034357027890365543</v>
       </c>
       <c r="G13" s="0">
-        <v>3.5415155006144272</v>
+        <v>1.265797361323884</v>
       </c>
       <c r="H13" s="0">
-        <v>1.08427350025185</v>
+        <v>1.6749856786767083</v>
       </c>
       <c r="I13" s="0">
-        <v>0.39163422376601581</v>
+        <v>0.70930752706222444</v>
       </c>
       <c r="J13" s="0">
-        <v>1.1137628364570158</v>
+        <v>0.073274493246107963</v>
       </c>
       <c r="K13" s="0">
-        <v>0.6392674955333425</v>
+        <v>0.13573340431128286</v>
       </c>
       <c r="L13" s="0">
-        <v>2.9087972208551665</v>
+        <v>0.082090164841175428</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>3.4487767260518818</v>
+        <v>0.42973319795206022</v>
       </c>
       <c r="B14" s="0">
         <v>1.1251664624250355</v>
@@ -917,30 +923,30 @@
         <v>0.48181621670024882</v>
       </c>
       <c r="F14" s="0">
-        <v>2.8858020375337734</v>
+        <v>0.057352211211758597</v>
       </c>
       <c r="G14" s="0">
-        <v>3.4487767260518818</v>
+        <v>1.2654812436932152</v>
       </c>
       <c r="H14" s="0">
-        <v>1.1251664624250355</v>
+        <v>0.65212570480482712</v>
       </c>
       <c r="I14" s="0">
-        <v>0.38765027860780438</v>
+        <v>0.58488188734572155</v>
       </c>
       <c r="J14" s="0">
-        <v>0.7747135205298592</v>
+        <v>0.074843317530399231</v>
       </c>
       <c r="K14" s="0">
-        <v>0.48181621670024882</v>
+        <v>0.29417942336796676</v>
       </c>
       <c r="L14" s="0">
-        <v>2.8858020375337734</v>
+        <v>0.076289612768328796</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>3.2143006545280568</v>
+        <v>0.66420926947588521</v>
       </c>
       <c r="B15" s="0">
         <v>0.63040283649631956</v>
@@ -955,30 +961,30 @@
         <v>0.49187545041624126</v>
       </c>
       <c r="F15" s="0">
-        <v>2.8719621860214124</v>
+        <v>0.071192062724119598</v>
       </c>
       <c r="G15" s="0">
-        <v>3.2143006545280568</v>
+        <v>0.93001194693495226</v>
       </c>
       <c r="H15" s="0">
-        <v>0.63040283649631956</v>
+        <v>0.32700574640038982</v>
       </c>
       <c r="I15" s="0">
-        <v>0.31151645527470062</v>
+        <v>0.49807179686338593</v>
       </c>
       <c r="J15" s="0">
-        <v>0.65238034676472334</v>
+        <v>0.074177207471974912</v>
       </c>
       <c r="K15" s="0">
-        <v>0.49187545041624126</v>
+        <v>0.40144051415669602</v>
       </c>
       <c r="L15" s="0">
-        <v>2.8719621860214124</v>
+        <v>0.4177873266286643</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>3.2860424926875731</v>
+        <v>0.59246743131636892</v>
       </c>
       <c r="B16" s="0">
         <v>0.62978101306595691</v>
@@ -993,30 +999,30 @@
         <v>0.49275990264405917</v>
       </c>
       <c r="F16" s="0">
-        <v>2.6845500849834818</v>
+        <v>0.2586041637620502</v>
       </c>
       <c r="G16" s="0">
-        <v>3.2860424926875731</v>
+        <v>0.44292567036659847</v>
       </c>
       <c r="H16" s="0">
-        <v>0.62978101306595691</v>
+        <v>0.32561616551149142</v>
       </c>
       <c r="I16" s="0">
-        <v>0.29882358739064308</v>
+        <v>0.42755866407934301</v>
       </c>
       <c r="J16" s="0">
-        <v>0.54600436447239709</v>
+        <v>0.074366033289770817</v>
       </c>
       <c r="K16" s="0">
-        <v>0.49275990264405917</v>
+        <v>0.39739718610828567</v>
       </c>
       <c r="L16" s="0">
-        <v>2.6845500849834818</v>
+        <v>0.85951495195527994</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>2.3614565312866458</v>
+        <v>1.5170533927172962</v>
       </c>
       <c r="B17" s="0">
         <v>0.43570568784523317</v>
@@ -1031,30 +1037,30 @@
         <v>1.2905918529837397</v>
       </c>
       <c r="F17" s="0">
-        <v>2.4280203337947586</v>
+        <v>0.51513391495077343</v>
       </c>
       <c r="G17" s="0">
-        <v>2.3614565312866458</v>
+        <v>0.44254270591031264</v>
       </c>
       <c r="H17" s="0">
-        <v>0.43570568784523317</v>
+        <v>0.17221060447134029</v>
       </c>
       <c r="I17" s="0">
-        <v>0.29797050662682217</v>
+        <v>0.36918014391934978</v>
       </c>
       <c r="J17" s="0">
-        <v>0.48966276708200102</v>
+        <v>0.071665019132964913</v>
       </c>
       <c r="K17" s="0">
-        <v>1.2905918529837397</v>
+        <v>0.35084965771913096</v>
       </c>
       <c r="L17" s="0">
-        <v>2.4280203337947586</v>
+        <v>1.0028474434541299</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.62810018126689138</v>
+        <v>3.2504097427370509</v>
       </c>
       <c r="B18" s="0">
         <v>0.21534459657267904</v>
@@ -1069,30 +1075,30 @@
         <v>1.3449078727427488</v>
       </c>
       <c r="F18" s="0">
-        <v>2.3503877853595663</v>
+        <v>0.59276646338596573</v>
       </c>
       <c r="G18" s="0">
-        <v>0.62810018126689138</v>
+        <v>0.33656873560252143</v>
       </c>
       <c r="H18" s="0">
-        <v>0.21534459657267904</v>
+        <v>0.18833598140560484</v>
       </c>
       <c r="I18" s="0">
-        <v>0.29936748529915552</v>
+        <v>0.34217376929643417</v>
       </c>
       <c r="J18" s="0">
-        <v>0.45233879477961325</v>
+        <v>0.071517840411834191</v>
       </c>
       <c r="K18" s="0">
-        <v>1.3449078727427488</v>
+        <v>0.29155173338719537</v>
       </c>
       <c r="L18" s="0">
-        <v>2.3503877853595663</v>
+        <v>1.0431820213073733</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.79873442358128166</v>
+        <v>3.0797755004226604</v>
       </c>
       <c r="B19" s="0">
         <v>0.17783210075852332</v>
@@ -1107,30 +1113,30 @@
         <v>1.3486814759207979</v>
       </c>
       <c r="F19" s="0">
-        <v>2.3772358218511491</v>
+        <v>0.56591842689438288</v>
       </c>
       <c r="G19" s="0">
-        <v>0.79873442358128166</v>
+        <v>0.1921201499915012</v>
       </c>
       <c r="H19" s="0">
-        <v>0.17783210075852332</v>
+        <v>0.19053703060950528</v>
       </c>
       <c r="I19" s="0">
-        <v>0.29515442554975468</v>
+        <v>0.32016163830769584</v>
       </c>
       <c r="J19" s="0">
-        <v>0.40302253362673962</v>
+        <v>0.071404709273809805</v>
       </c>
       <c r="K19" s="0">
-        <v>1.3486814759207979</v>
+        <v>0.27394042780546557</v>
       </c>
       <c r="L19" s="0">
-        <v>2.3772358218511491</v>
+        <v>0.99598200169654028</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>2.1085651680863511</v>
+        <v>1.7699447559175909</v>
       </c>
       <c r="B20" s="0">
         <v>0.17447766930234579</v>
@@ -1145,30 +1151,30 @@
         <v>1.2626842072904956</v>
       </c>
       <c r="F20" s="0">
-        <v>2.4604453462960802</v>
+        <v>0.48270890244945175</v>
       </c>
       <c r="G20" s="0">
-        <v>2.1085651680863511</v>
+        <v>0.18911537655335228</v>
       </c>
       <c r="H20" s="0">
-        <v>0.17447766930234579</v>
+        <v>0.22846657470559956</v>
       </c>
       <c r="I20" s="0">
-        <v>0.29452776796051672</v>
+        <v>0.28631369165918735</v>
       </c>
       <c r="J20" s="0">
-        <v>0.38176644050745623</v>
+        <v>0.54549262718234637</v>
       </c>
       <c r="K20" s="0">
-        <v>1.2626842072904956</v>
+        <v>0.28641560141671102</v>
       </c>
       <c r="L20" s="0">
-        <v>2.4604453462960802</v>
+        <v>0.86018184565062239</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>2.9338070189173204</v>
+        <v>0.94470290508662158</v>
       </c>
       <c r="B21" s="0">
         <v>0.14482216149648811</v>
@@ -1183,30 +1189,30 @@
         <v>1.2969221381113518</v>
       </c>
       <c r="F21" s="0">
-        <v>2.4770733028990306</v>
+        <v>0.46608094584650139</v>
       </c>
       <c r="G21" s="0">
-        <v>2.9338070189173204</v>
+        <v>0.16458235143837613</v>
       </c>
       <c r="H21" s="0">
-        <v>0.14482216149648811</v>
+        <v>0.23911816726287841</v>
       </c>
       <c r="I21" s="0">
-        <v>0.28491413539731564</v>
+        <v>0.26046352558190389</v>
       </c>
       <c r="J21" s="0">
-        <v>0.35876002666370865</v>
+        <v>0.75440870598150367</v>
       </c>
       <c r="K21" s="0">
-        <v>1.2969221381113518</v>
+        <v>0.28439364142306689</v>
       </c>
       <c r="L21" s="0">
-        <v>2.4770733028990306</v>
+        <v>0.67497258760777323</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>3.0837322439862724</v>
+        <v>0.79477768001766957</v>
       </c>
       <c r="B22" s="0">
         <v>0.14391503755000429</v>
@@ -1221,30 +1227,30 @@
         <v>1.2957774239995152</v>
       </c>
       <c r="F22" s="0">
-        <v>2.6555498047902466</v>
+        <v>0.28760444395528539</v>
       </c>
       <c r="G22" s="0">
-        <v>3.0837322439862724</v>
+        <v>0.12793327972381896</v>
       </c>
       <c r="H22" s="0">
-        <v>0.14391503755000429</v>
+        <v>0.23986080922875133</v>
       </c>
       <c r="I22" s="0">
-        <v>0.28505705322506797</v>
+        <v>0.24682981731099213</v>
       </c>
       <c r="J22" s="0">
-        <v>0.29624902569089817</v>
+        <v>0.75325191505854461</v>
       </c>
       <c r="K22" s="0">
-        <v>1.2957774239995152</v>
+        <v>0.28194465981062522</v>
       </c>
       <c r="L22" s="0">
-        <v>2.6555498047902466</v>
+        <v>0.53379798380582399</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>3.19846876206624</v>
+        <v>0.68004116193770203</v>
       </c>
       <c r="B23" s="0">
         <v>0.13961595371679186</v>
@@ -1259,30 +1265,30 @@
         <v>1.1716365072180721</v>
       </c>
       <c r="F23" s="0">
-        <v>1.8154731322224011</v>
+        <v>1.1276811165231309</v>
       </c>
       <c r="G23" s="0">
-        <v>3.19846876206624</v>
+        <v>0.12620293526658086</v>
       </c>
       <c r="H23" s="0">
-        <v>0.13961595371679186</v>
+        <v>0.2302029374217576</v>
       </c>
       <c r="I23" s="0">
-        <v>0.28490434766831307</v>
+        <v>0.23933344477664834</v>
       </c>
       <c r="J23" s="0">
-        <v>0.28163813449107022</v>
+        <v>0.79736212007570983</v>
       </c>
       <c r="K23" s="0">
-        <v>1.1716365072180721</v>
+        <v>0.2636009464417986</v>
       </c>
       <c r="L23" s="0">
-        <v>1.8154731322224011</v>
+        <v>0.42329624336403887</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>3.248384940808299</v>
+        <v>0.63012498319564303</v>
       </c>
       <c r="B24" s="0">
         <v>0.84191673937872546</v>
@@ -1297,30 +1303,30 @@
         <v>0.83327249337173948</v>
       </c>
       <c r="F24" s="0">
-        <v>1.380989274207358</v>
+        <v>1.562164974538174</v>
       </c>
       <c r="G24" s="0">
-        <v>3.248384940808299</v>
+        <v>0.12036219242988895</v>
       </c>
       <c r="H24" s="0">
-        <v>0.84191673937872546</v>
+        <v>0.23413824496227745</v>
       </c>
       <c r="I24" s="0">
-        <v>0.27948318004424555</v>
+        <v>0.23037166147565344</v>
       </c>
       <c r="J24" s="0">
-        <v>0.27425658602598985</v>
+        <v>0.77766841176123969</v>
       </c>
       <c r="K24" s="0">
-        <v>0.83327249337173948</v>
+        <v>0.2360036433848314</v>
       </c>
       <c r="L24" s="0">
-        <v>1.380989274207358</v>
+        <v>0.35896763709288088</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>3.1735491285572142</v>
+        <v>0.70496079544672785</v>
       </c>
       <c r="B25" s="0">
         <v>0.84317282473222455</v>
@@ -1335,30 +1341,30 @@
         <v>0.83270377986067556</v>
       </c>
       <c r="F25" s="0">
-        <v>1.2750545134480635</v>
+        <v>1.6680997352974685</v>
       </c>
       <c r="G25" s="0">
-        <v>3.1735491285572142</v>
+        <v>0.11409208626261187</v>
       </c>
       <c r="H25" s="0">
-        <v>0.84317282473222455</v>
+        <v>0.23438165100144376</v>
       </c>
       <c r="I25" s="0">
-        <v>0.27590496660817299</v>
+        <v>0.21996125070588313</v>
       </c>
       <c r="J25" s="0">
-        <v>0.7332615886906324</v>
+        <v>0.77574967155503138</v>
       </c>
       <c r="K25" s="0">
-        <v>0.83270377986067556</v>
+        <v>0.22076929269596296</v>
       </c>
       <c r="L25" s="0">
-        <v>1.2750545134480635</v>
+        <v>0.30939123296316018</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>3.1301090377332246</v>
+        <v>0.74840088627071744</v>
       </c>
       <c r="B26" s="0">
         <v>1.103470226619172</v>
@@ -1373,30 +1379,30 @@
         <v>0.65445444968625621</v>
       </c>
       <c r="F26" s="0">
-        <v>1.5012889879171318</v>
+        <v>1.4418652608284002</v>
       </c>
       <c r="G26" s="0">
-        <v>3.1301090377332246</v>
+        <v>0.10718003811285036</v>
       </c>
       <c r="H26" s="0">
-        <v>1.103470226619172</v>
+        <v>0.23190503769382476</v>
       </c>
       <c r="I26" s="0">
-        <v>0.27633447935508515</v>
+        <v>0.20934782712930797</v>
       </c>
       <c r="J26" s="0">
-        <v>3.443328153319086</v>
+        <v>0.56391128924386313</v>
       </c>
       <c r="K26" s="0">
-        <v>0.65445444968625621</v>
+        <v>0.24174841436965433</v>
       </c>
       <c r="L26" s="0">
-        <v>1.5012889879171318</v>
+        <v>0.27895281490767387</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>2.8541884885898399</v>
+        <v>1.0243214354141021</v>
       </c>
       <c r="B27" s="0">
         <v>0.28070076318986664</v>
@@ -1411,30 +1417,30 @@
         <v>0.45707117157031035</v>
       </c>
       <c r="F27" s="0">
-        <v>1.9414527477863504</v>
+        <v>1.0017015009591816</v>
       </c>
       <c r="G27" s="0">
-        <v>2.8541884885898399</v>
+        <v>0.10550358862352767</v>
       </c>
       <c r="H27" s="0">
-        <v>0.28070076318986664</v>
+        <v>0.27428778049688035</v>
       </c>
       <c r="I27" s="0">
-        <v>0.44491045767877019</v>
+        <v>0.19671974814535378</v>
       </c>
       <c r="J27" s="0">
-        <v>3.9806686456907721</v>
+        <v>0.52127675330136736</v>
       </c>
       <c r="K27" s="0">
-        <v>0.45707117157031035</v>
+        <v>0.24419286063861595</v>
       </c>
       <c r="L27" s="0">
-        <v>1.9414527477863504</v>
+        <v>0.2537407828062021</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>3.230773796600853</v>
+        <v>0.64773612740308906</v>
       </c>
       <c r="B28" s="0">
         <v>0.28113522090443149</v>
@@ -1449,30 +1455,30 @@
         <v>0.38444674654624172</v>
       </c>
       <c r="F28" s="0">
-        <v>0.70621566687019077</v>
+        <v>2.2369385818753411</v>
       </c>
       <c r="G28" s="0">
-        <v>3.230773796600853</v>
+        <v>0.093161198859289668</v>
       </c>
       <c r="H28" s="0">
-        <v>0.28113522090443149</v>
+        <v>0.27480982598394582</v>
       </c>
       <c r="I28" s="0">
-        <v>0.40948119719350839</v>
+        <v>0.18777921661562763</v>
       </c>
       <c r="J28" s="0">
-        <v>3.4449293142474247</v>
+        <v>0.51720967118662797</v>
       </c>
       <c r="K28" s="0">
-        <v>0.38444674654624172</v>
+        <v>0.22478935962446681</v>
       </c>
       <c r="L28" s="0">
-        <v>0.70621566687019077</v>
+        <v>0.23483373845420491</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>3.037770191525587</v>
+        <v>0.84073973247835498</v>
       </c>
       <c r="B29" s="0">
         <v>0.2290104372365088</v>
@@ -1487,30 +1493,30 @@
         <v>0.38281656655478585</v>
       </c>
       <c r="F29" s="0">
-        <v>2.1073708576254551</v>
+        <v>0.83578339112007694</v>
       </c>
       <c r="G29" s="0">
-        <v>3.037770191525587</v>
+        <v>0.092853881068215974</v>
       </c>
       <c r="H29" s="0">
-        <v>0.2290104372365088</v>
+        <v>0.29419485764089104</v>
       </c>
       <c r="I29" s="0">
-        <v>0.40779314978505743</v>
+        <v>0.16086576576699282</v>
       </c>
       <c r="J29" s="0">
-        <v>1.8816127184012699</v>
+        <v>0.3178360705480443</v>
       </c>
       <c r="K29" s="0">
-        <v>0.38281656655478585</v>
+        <v>0.19491316781254037</v>
       </c>
       <c r="L29" s="0">
-        <v>2.1073708576254551</v>
+        <v>0.22439055238461333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>1.1162846263438961</v>
+        <v>2.7622252976600459</v>
       </c>
       <c r="B30" s="0">
         <v>0.28262818175146048</v>
@@ -1525,30 +1531,30 @@
         <v>0.30925813131863666</v>
       </c>
       <c r="F30" s="0">
-        <v>2.3794928524164964</v>
+        <v>0.56366139632903556</v>
       </c>
       <c r="G30" s="0">
-        <v>1.1162846263438961</v>
+        <v>0.090968343069466481</v>
       </c>
       <c r="H30" s="0">
-        <v>0.28262818175146048</v>
+        <v>0.25251657621997425</v>
       </c>
       <c r="I30" s="0">
-        <v>0.32399837933066572</v>
+        <v>0.14614979072426634</v>
       </c>
       <c r="J30" s="0">
-        <v>0.88719112806225575</v>
+        <v>0.27579914953915774</v>
       </c>
       <c r="K30" s="0">
-        <v>0.30925813131863666</v>
+        <v>0.14899439682327426</v>
       </c>
       <c r="L30" s="0">
-        <v>2.3794928524164964</v>
+        <v>0.21546265775332185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.5982571265256118</v>
+        <v>3.2802527974783304</v>
       </c>
       <c r="B31" s="0">
         <v>0.2841280944403427</v>
@@ -1563,30 +1569,30 @@
         <v>0.30275240965819228</v>
       </c>
       <c r="F31" s="0">
-        <v>1.6614060646973332</v>
+        <v>1.2817481840481988</v>
       </c>
       <c r="G31" s="0">
-        <v>0.5982571265256118</v>
+        <v>0.090386591063022173</v>
       </c>
       <c r="H31" s="0">
-        <v>0.2841280944403427</v>
+        <v>0.16904767835398293</v>
       </c>
       <c r="I31" s="0">
-        <v>0.31628682481556175</v>
+        <v>0.13852738573927068</v>
       </c>
       <c r="J31" s="0">
-        <v>0.54934776928666273</v>
+        <v>0.27392183595034691</v>
       </c>
       <c r="K31" s="0">
-        <v>0.30275240965819228</v>
+        <v>0.09807441422842024</v>
       </c>
       <c r="L31" s="0">
-        <v>1.6614060646973332</v>
+        <v>0.19810944807597794</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>1.650354789653689</v>
+        <v>2.2281551343502528</v>
       </c>
       <c r="B32" s="0">
         <v>0.25647991559416666</v>
@@ -1601,30 +1607,30 @@
         <v>0.2447407789613249</v>
       </c>
       <c r="F32" s="0">
-        <v>0.23193829998649007</v>
+        <v>2.7112159487590421</v>
       </c>
       <c r="G32" s="0">
-        <v>1.650354789653689</v>
+        <v>0.099232427460822753</v>
       </c>
       <c r="H32" s="0">
-        <v>0.25647991559416666</v>
+        <v>0.13419770900238678</v>
       </c>
       <c r="I32" s="0">
-        <v>0.29505328007075571</v>
+        <v>0.14426930432112767</v>
       </c>
       <c r="J32" s="0">
-        <v>0.27481263739727108</v>
+        <v>0.18348097670903382</v>
       </c>
       <c r="K32" s="0">
-        <v>0.2447407789613249</v>
+        <v>0.11775006214603974</v>
       </c>
       <c r="L32" s="0">
-        <v>0.23193829998649007</v>
+        <v>0.15943259591023745</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>2.8159058179602616</v>
+        <v>1.0626041060436804</v>
       </c>
       <c r="B33" s="0">
         <v>0.1384838182329575</v>
@@ -1639,30 +1645,30 @@
         <v>0.26434254942407387</v>
       </c>
       <c r="F33" s="0">
-        <v>1.3958076502260608</v>
+        <v>1.5473465985194712</v>
       </c>
       <c r="G33" s="0">
-        <v>2.8159058179602616</v>
+        <v>0.099575873775413951</v>
       </c>
       <c r="H33" s="0">
-        <v>0.1384838182329575</v>
+        <v>0.15391098891392213</v>
       </c>
       <c r="I33" s="0">
-        <v>0.34922055480141073</v>
+        <v>1.1932138391160863</v>
       </c>
       <c r="J33" s="0">
-        <v>0.26326822247266773</v>
+        <v>0.17790407888472468</v>
       </c>
       <c r="K33" s="0">
-        <v>0.26434254942407387</v>
+        <v>0.13160991147799689</v>
       </c>
       <c r="L33" s="0">
-        <v>1.3958076502260608</v>
+        <v>0.16685640359749168</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>2.646355857494108</v>
+        <v>1.2321540665098341</v>
       </c>
       <c r="B34" s="0">
         <v>0.1197584302703852</v>
@@ -1677,30 +1683,30 @@
         <v>0.26064091094135461</v>
       </c>
       <c r="F34" s="0">
-        <v>2.289354548236024</v>
+        <v>0.65379970050950797</v>
       </c>
       <c r="G34" s="0">
-        <v>2.646355857494108</v>
+        <v>0.11622902488994841</v>
       </c>
       <c r="H34" s="0">
-        <v>0.1197584302703852</v>
+        <v>0.15339560721705828</v>
       </c>
       <c r="I34" s="0">
-        <v>0.38493228074242264</v>
+        <v>2.3156372194704269</v>
       </c>
       <c r="J34" s="0">
-        <v>0.2648008846694353</v>
+        <v>0.17619516448223216</v>
       </c>
       <c r="K34" s="0">
-        <v>0.26064091094135461</v>
+        <v>0.11657668618400237</v>
       </c>
       <c r="L34" s="0">
-        <v>2.289354548236024</v>
+        <v>0.17236923537161025</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>2.2602352985282907</v>
+        <v>1.6182746254756513</v>
       </c>
       <c r="B35" s="0">
         <v>0.11958878397970268</v>
@@ -1715,30 +1721,30 @@
         <v>0.22210796577767772</v>
       </c>
       <c r="F35" s="0">
-        <v>2.7352652345932014</v>
+        <v>0.20788901415233063</v>
       </c>
       <c r="G35" s="0">
-        <v>2.2602352985282907</v>
+        <v>0.11541962831054073</v>
       </c>
       <c r="H35" s="0">
-        <v>0.11958878397970268</v>
+        <v>0.15544268298646474</v>
       </c>
       <c r="I35" s="0">
-        <v>0.3860641860040574</v>
+        <v>2.6913451079748705</v>
       </c>
       <c r="J35" s="0">
-        <v>3.1030307072437955</v>
+        <v>0.15663743300967156</v>
       </c>
       <c r="K35" s="0">
-        <v>0.22210796577767772</v>
+        <v>0.14475090041519045</v>
       </c>
       <c r="L35" s="0">
-        <v>2.7352652345932014</v>
+        <v>0.17102168622284955</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>1.8435933770497956</v>
+        <v>2.0349165469541464</v>
       </c>
       <c r="B36" s="0">
         <v>0.90377616260260052</v>
@@ -1753,30 +1759,30 @@
         <v>0.63859618392036122</v>
       </c>
       <c r="F36" s="0">
-        <v>2.8884522493698364</v>
+        <v>0.054701999375695642</v>
       </c>
       <c r="G36" s="0">
-        <v>1.8435933770497956</v>
+        <v>0.11202267180739518</v>
       </c>
       <c r="H36" s="0">
-        <v>0.90377616260260052</v>
+        <v>0.15825307352734089</v>
       </c>
       <c r="I36" s="0">
-        <v>0.37803378386330555</v>
+        <v>2.7378544732625034</v>
       </c>
       <c r="J36" s="0">
-        <v>6.8201414163115173</v>
+        <v>0.15227999774922579</v>
       </c>
       <c r="K36" s="0">
-        <v>0.63859618392036122</v>
+        <v>0.15287506673386031</v>
       </c>
       <c r="L36" s="0">
-        <v>2.8884522493698364</v>
+        <v>0.16387258536671789</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>2.4635789208052321</v>
+        <v>1.4149310031987099</v>
       </c>
       <c r="B37" s="0">
         <v>0.90424548191906839</v>
@@ -1791,30 +1797,30 @@
         <v>0.63866292581028317</v>
       </c>
       <c r="F37" s="0">
-        <v>2.9231039924118876</v>
+        <v>0.020050256333644434</v>
       </c>
       <c r="G37" s="0">
-        <v>2.4635789208052321</v>
+        <v>2.3872466267188903</v>
       </c>
       <c r="H37" s="0">
-        <v>0.90424548191906839</v>
+        <v>0.15890911631234275</v>
       </c>
       <c r="I37" s="0">
-        <v>1.4969991361288155</v>
+        <v>2.6082179719127851</v>
       </c>
       <c r="J37" s="0">
-        <v>7.1145655086383721</v>
+        <v>0.15089861134071994</v>
       </c>
       <c r="K37" s="0">
-        <v>0.63866292581028317</v>
+        <v>0.15678352163291023</v>
       </c>
       <c r="L37" s="0">
-        <v>2.9231039924118876</v>
+        <v>0.16219162672432239</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>2.2689444964237251</v>
+        <v>1.6095654275802169</v>
       </c>
       <c r="B38" s="0">
         <v>1.1120101833454639</v>
@@ -1829,30 +1835,30 @@
         <v>0.65104294034631005</v>
       </c>
       <c r="F38" s="0">
-        <v>2.9388963882010071</v>
+        <v>0.0042578605445249273</v>
       </c>
       <c r="G38" s="0">
-        <v>2.2689444964237251</v>
+        <v>2.3868392331047739</v>
       </c>
       <c r="H38" s="0">
-        <v>1.1120101833454639</v>
+        <v>1.0774983257455648</v>
       </c>
       <c r="I38" s="0">
-        <v>1.5000658450638169</v>
+        <v>2.3075869778862219</v>
       </c>
       <c r="J38" s="0">
-        <v>6.5473712448593702</v>
+        <v>0.14151100272856446</v>
       </c>
       <c r="K38" s="0">
-        <v>0.65104294034631005</v>
+        <v>0.18755970941226818</v>
       </c>
       <c r="L38" s="0">
-        <v>2.9388963882010071</v>
+        <v>0.15782820474284753</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>2.5348406216548205</v>
+        <v>1.3436693023491215</v>
       </c>
       <c r="B39" s="0">
         <v>0.26720497642397545</v>
@@ -1867,30 +1873,30 @@
         <v>0.50407755010310817</v>
       </c>
       <c r="F39" s="0">
-        <v>2.9399052643337953</v>
+        <v>0.0032489844117367106</v>
       </c>
       <c r="G39" s="0">
-        <v>2.5348406216548205</v>
+        <v>2.911511418562748</v>
       </c>
       <c r="H39" s="0">
-        <v>0.26720497642397545</v>
+        <v>2.2532834058798641</v>
       </c>
       <c r="I39" s="0">
-        <v>1.6129180580053248</v>
+        <v>1.9488795473086349</v>
       </c>
       <c r="J39" s="0">
-        <v>5.831691104664726</v>
+        <v>0.13822140494563848</v>
       </c>
       <c r="K39" s="0">
-        <v>0.50407755010310817</v>
+        <v>0.20019367146210706</v>
       </c>
       <c r="L39" s="0">
-        <v>2.9399052643337953</v>
+        <v>0.14741081402835993</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>3.3448890722947882</v>
+        <v>0.53362085170915385</v>
       </c>
       <c r="B40" s="0">
         <v>0.26611757576497946</v>
@@ -1905,30 +1911,30 @@
         <v>0.50338026483336473</v>
       </c>
       <c r="F40" s="0">
-        <v>2.943154248745532</v>
+        <v>0</v>
       </c>
       <c r="G40" s="0">
-        <v>3.3448890722947882</v>
+        <v>2.7138276965721433</v>
       </c>
       <c r="H40" s="0">
-        <v>0.26611757576497946</v>
+        <v>2.2525099592265483</v>
       </c>
       <c r="I40" s="0">
-        <v>1.1733719258217605</v>
+        <v>1.5925244234608842</v>
       </c>
       <c r="J40" s="0">
-        <v>4.6078376133431984</v>
+        <v>0.1376404538320303</v>
       </c>
       <c r="K40" s="0">
-        <v>0.50338026483336473</v>
+        <v>0.18878873381561045</v>
       </c>
       <c r="L40" s="0">
-        <v>2.943154248745532</v>
+        <v>0.14163589168418617</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>3.5045507580508555</v>
+        <v>0.37395916595308654</v>
       </c>
       <c r="B41" s="0">
         <v>0.17344063630391254</v>
@@ -1943,30 +1949,30 @@
         <v>0.28165433202277268</v>
       </c>
       <c r="F41" s="0">
-        <v>2.9395072306518206</v>
+        <v>0.0036470180937113739</v>
       </c>
       <c r="G41" s="0">
-        <v>3.5045507580508555</v>
+        <v>2.2786096225027621</v>
       </c>
       <c r="H41" s="0">
-        <v>0.17344063630391254</v>
+        <v>2.3308626147358233</v>
       </c>
       <c r="I41" s="0">
-        <v>1.1729185533351112</v>
+        <v>1.2403732955406288</v>
       </c>
       <c r="J41" s="0">
-        <v>3.0338859902595168</v>
+        <v>0.12862450217570104</v>
       </c>
       <c r="K41" s="0">
-        <v>0.28165433202277268</v>
+        <v>0.16346884070477777</v>
       </c>
       <c r="L41" s="0">
-        <v>2.9395072306518206</v>
+        <v>0.14696102250289073</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>3.4469274508807346</v>
+        <v>0.43158247312320741</v>
       </c>
       <c r="B42" s="0">
         <v>1.0854731001224123</v>
@@ -1981,30 +1987,30 @@
         <v>0.43243431137826538</v>
       </c>
       <c r="F42" s="0">
-        <v>2.9255620596906993</v>
+        <v>0.01759218905483273</v>
       </c>
       <c r="G42" s="0">
-        <v>3.4469274508807346</v>
+        <v>2.2777286165432482</v>
       </c>
       <c r="H42" s="0">
-        <v>1.0854731001224123</v>
+        <v>1.8409331811264105</v>
       </c>
       <c r="I42" s="0">
-        <v>0.86687496598220903</v>
+        <v>0.97479828236580734</v>
       </c>
       <c r="J42" s="0">
-        <v>1.8174576998172585</v>
+        <v>0.10796470617425301</v>
       </c>
       <c r="K42" s="0">
-        <v>0.43243431137826538</v>
+        <v>0.14770181267150478</v>
       </c>
       <c r="L42" s="0">
-        <v>2.9255620596906993</v>
+        <v>0.15659976903124642</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>3.4293645842218008</v>
+        <v>0.44914533978214122</v>
       </c>
       <c r="B43" s="0">
         <v>1.0854150824813089</v>
@@ -2019,30 +2025,30 @@
         <v>0.43207593775496494</v>
       </c>
       <c r="F43" s="0">
-        <v>2.8812458327241708</v>
+        <v>0.061908416021361212</v>
       </c>
       <c r="G43" s="0">
-        <v>3.4293645842218008</v>
+        <v>1.2704918350094734</v>
       </c>
       <c r="H43" s="0">
-        <v>1.0854150824813089</v>
+        <v>1.8397339983356071</v>
       </c>
       <c r="I43" s="0">
-        <v>0.43462173303343277</v>
+        <v>0.77744528205004537</v>
       </c>
       <c r="J43" s="0">
-        <v>1.1988654054910237</v>
+        <v>0.10710197267191039</v>
       </c>
       <c r="K43" s="0">
-        <v>0.43207593775496494</v>
+        <v>0.13584418712049662</v>
       </c>
       <c r="L43" s="0">
-        <v>2.8812458327241708</v>
+        <v>0.15855234837407001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>3.4099302150456339</v>
+        <v>0.46857970895830814</v>
       </c>
       <c r="B44" s="0">
         <v>1.1381072691778773</v>
@@ -2057,30 +2063,30 @@
         <v>0.50226980434105173</v>
       </c>
       <c r="F44" s="0">
-        <v>2.8598643899445118</v>
+        <v>0.083289858801020245</v>
       </c>
       <c r="G44" s="0">
-        <v>3.4099302150456339</v>
+        <v>1.2706165642170941</v>
       </c>
       <c r="H44" s="0">
-        <v>1.1381072691778773</v>
+        <v>0.72761216080629565</v>
       </c>
       <c r="I44" s="0">
-        <v>0.37479434672421447</v>
+        <v>0.63777437595953523</v>
       </c>
       <c r="J44" s="0">
-        <v>0.91431015448253039</v>
+        <v>0.10806981470630403</v>
       </c>
       <c r="K44" s="0">
-        <v>0.50226980434105173</v>
+        <v>0.29754828372834208</v>
       </c>
       <c r="L44" s="0">
-        <v>2.8598643899445118</v>
+        <v>0.15589231819038432</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>3.4342384734483686</v>
+        <v>0.44427145055557338</v>
       </c>
       <c r="B45" s="0">
         <v>0.80493988331888933</v>
@@ -2095,30 +2101,30 @@
         <v>0.54955530847689205</v>
       </c>
       <c r="F45" s="0">
-        <v>2.8396346603575577</v>
+        <v>0.10351958838797426</v>
       </c>
       <c r="G45" s="0">
-        <v>3.4342384734483686</v>
+        <v>0.90603392062817678</v>
       </c>
       <c r="H45" s="0">
-        <v>0.80493988331888933</v>
+        <v>0.37436630024720202</v>
       </c>
       <c r="I45" s="0">
-        <v>0.37076606049435462</v>
+        <v>0.53540801576336716</v>
       </c>
       <c r="J45" s="0">
-        <v>0.79093140863332545</v>
+        <v>0.10744933628684758</v>
       </c>
       <c r="K45" s="0">
-        <v>0.54955530847689205</v>
+        <v>0.39568240176692904</v>
       </c>
       <c r="L45" s="0">
-        <v>2.8396346603575577</v>
+        <v>0.44241054608312752</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>3.5669717799358502</v>
+        <v>0.31153814406809177</v>
       </c>
       <c r="B46" s="0">
         <v>0.80499331497296789</v>
@@ -2133,30 +2139,30 @@
         <v>1.2717930086140796</v>
       </c>
       <c r="F46" s="0">
-        <v>2.5063020947677077</v>
+        <v>0.43685215397782429</v>
       </c>
       <c r="G46" s="0">
-        <v>3.5669717799358502</v>
+        <v>0.44831003703171718</v>
       </c>
       <c r="H46" s="0">
-        <v>0.80499331497296789</v>
+        <v>0.21330687416662533</v>
       </c>
       <c r="I46" s="0">
-        <v>0.34958513314868267</v>
+        <v>0.47503319553501649</v>
       </c>
       <c r="J46" s="0">
-        <v>0.73089366766948605</v>
+        <v>0.10686387020738845</v>
       </c>
       <c r="K46" s="0">
-        <v>1.2717930086140796</v>
+        <v>0.40808569707465359</v>
       </c>
       <c r="L46" s="0">
-        <v>2.5063020947677077</v>
+        <v>0.89140946860467096</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>2.4818051349739152</v>
+        <v>1.3967047890300268</v>
       </c>
       <c r="B47" s="0">
         <v>1.3653058045274846</v>
@@ -2171,30 +2177,30 @@
         <v>1.2744990812260999</v>
       </c>
       <c r="F47" s="0">
-        <v>2.3579795465843296</v>
+        <v>0.58517470216120238</v>
       </c>
       <c r="G47" s="0">
-        <v>2.4818051349739152</v>
+        <v>0.4491738320389404</v>
       </c>
       <c r="H47" s="0">
-        <v>1.3653058045274846</v>
+        <v>0.16907767085602032</v>
       </c>
       <c r="I47" s="0">
-        <v>0.34707353480256142</v>
+        <v>0.43476767085653134</v>
       </c>
       <c r="J47" s="0">
-        <v>0.68300514719006011</v>
+        <v>0.10378261811562109</v>
       </c>
       <c r="K47" s="0">
-        <v>1.2744990812260999</v>
+        <v>0.37452755325486209</v>
       </c>
       <c r="L47" s="0">
-        <v>2.3579795465843296</v>
+        <v>1.0594588337125717</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>1.6117616070452125</v>
+        <v>2.2667483169587292</v>
       </c>
       <c r="B48" s="0">
         <v>0.40575950335192434</v>
@@ -2209,30 +2215,30 @@
         <v>1.3263089023629924</v>
       </c>
       <c r="F48" s="0">
-        <v>2.3423729446360135</v>
+        <v>0.60078130410951847</v>
       </c>
       <c r="G48" s="0">
-        <v>1.6117616070452125</v>
+        <v>0.33343994820715678</v>
       </c>
       <c r="H48" s="0">
-        <v>0.40575950335192434</v>
+        <v>0.17286339392567512</v>
       </c>
       <c r="I48" s="0">
-        <v>0.33803361360129286</v>
+        <v>0.37837848438322963</v>
       </c>
       <c r="J48" s="0">
-        <v>0.64560630448660294</v>
+        <v>0.10521499084039676</v>
       </c>
       <c r="K48" s="0">
-        <v>1.3263089023629924</v>
+        <v>0.31346546057453395</v>
       </c>
       <c r="L48" s="0">
-        <v>2.3423729446360135</v>
+        <v>1.1068004663609257</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>1.0842058242576142</v>
+        <v>2.794304099746328</v>
       </c>
       <c r="B49" s="0">
         <v>0.40535230942198414</v>
@@ -2247,30 +2253,30 @@
         <v>1.3294821946885165</v>
       </c>
       <c r="F49" s="0">
-        <v>2.3949513663814415</v>
+        <v>0.54820288236409054</v>
       </c>
       <c r="G49" s="0">
-        <v>1.0842058242576142</v>
+        <v>0.18367947128931822</v>
       </c>
       <c r="H49" s="0">
-        <v>0.40535230942198414</v>
+        <v>0.1737836504049643</v>
       </c>
       <c r="I49" s="0">
-        <v>0.31645173482121763</v>
+        <v>0.35184095769783114</v>
       </c>
       <c r="J49" s="0">
-        <v>0.61432242758931144</v>
+        <v>0.10528413533065052</v>
       </c>
       <c r="K49" s="0">
-        <v>1.3294821946885165</v>
+        <v>0.27988907747974723</v>
       </c>
       <c r="L49" s="0">
-        <v>2.3949513663814415</v>
+        <v>1.0666571867986601</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>1.2197787173816266</v>
+        <v>2.6587312066223152</v>
       </c>
       <c r="B50" s="0">
         <v>0.23750242297943971</v>
@@ -2285,30 +2291,30 @@
         <v>1.4210757707832751</v>
       </c>
       <c r="F50" s="0">
-        <v>2.4909412738133034</v>
+        <v>0.45221297493222856</v>
       </c>
       <c r="G50" s="0">
-        <v>1.2197787173816266</v>
+        <v>0.18345913282908383</v>
       </c>
       <c r="H50" s="0">
-        <v>0.23750242297943971</v>
+        <v>0.22047002914191524</v>
       </c>
       <c r="I50" s="0">
-        <v>0.3157639159563343</v>
+        <v>0.33145649492471152</v>
       </c>
       <c r="J50" s="0">
-        <v>0.56692838828475178</v>
+        <v>0.63340502196414483</v>
       </c>
       <c r="K50" s="0">
-        <v>1.4210757707832751</v>
+        <v>0.29520326604747971</v>
       </c>
       <c r="L50" s="0">
-        <v>2.4909412738133034</v>
+        <v>0.93256470613408204</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>2.5331036411556935</v>
+        <v>1.3454062828482485</v>
       </c>
       <c r="B51" s="0">
         <v>0.15265410457539305</v>
@@ -2323,30 +2329,30 @@
         <v>1.5206925132667561</v>
       </c>
       <c r="F51" s="0">
-        <v>2.5125855077238874</v>
+        <v>0.43056874102164455</v>
       </c>
       <c r="G51" s="0">
-        <v>2.5331036411556935</v>
+        <v>0.16865714732842615</v>
       </c>
       <c r="H51" s="0">
-        <v>0.15265410457539305</v>
+        <v>0.22608249493955909</v>
       </c>
       <c r="I51" s="0">
-        <v>0.31624077064420908</v>
+        <v>0.31121459863433687</v>
       </c>
       <c r="J51" s="0">
-        <v>0.53001406449271016</v>
+        <v>0.85564038054492353</v>
       </c>
       <c r="K51" s="0">
-        <v>1.5206925132667561</v>
+        <v>0.29792342800820232</v>
       </c>
       <c r="L51" s="0">
-        <v>2.5125855077238874</v>
+        <v>0.74189702026776438</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>3.0002283813064485</v>
+        <v>0.87828154269749348</v>
       </c>
       <c r="B52" s="0">
         <v>0.15084278205249166</v>
@@ -2361,30 +2367,30 @@
         <v>1.5191801884670271</v>
       </c>
       <c r="F52" s="0">
-        <v>2.4791069330591222</v>
+        <v>0.46404731568640978</v>
       </c>
       <c r="G52" s="0">
-        <v>3.0002283813064485</v>
+        <v>0.13888342904636489</v>
       </c>
       <c r="H52" s="0">
-        <v>0.15084278205249166</v>
+        <v>0.22730987961175883</v>
       </c>
       <c r="I52" s="0">
-        <v>0.32376756480796731</v>
+        <v>0.29676068471728834</v>
       </c>
       <c r="J52" s="0">
-        <v>0.46941601350139583</v>
+        <v>0.92661097490713173</v>
       </c>
       <c r="K52" s="0">
-        <v>1.5191801884670271</v>
+        <v>0.28939507896624445</v>
       </c>
       <c r="L52" s="0">
-        <v>2.4791069330591222</v>
+        <v>0.5866108629199227</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>3.1791418466410297</v>
+        <v>0.69936807736291229</v>
       </c>
       <c r="B53" s="0">
         <v>0.14347621081108858</v>
@@ -2399,30 +2405,30 @@
         <v>1.2843767120976095</v>
       </c>
       <c r="F53" s="0">
-        <v>1.6877822480359723</v>
+        <v>1.2553720007095597</v>
       </c>
       <c r="G53" s="0">
-        <v>3.1791418466410297</v>
+        <v>0.13576913682761046</v>
       </c>
       <c r="H53" s="0">
-        <v>0.14347621081108858</v>
+        <v>0.23158461489805141</v>
       </c>
       <c r="I53" s="0">
-        <v>0.32470218948994328</v>
+        <v>0.28915374829188806</v>
       </c>
       <c r="J53" s="0">
-        <v>0.44330714784758968</v>
+        <v>0.93267995136781379</v>
       </c>
       <c r="K53" s="0">
-        <v>1.2843767120976095</v>
+        <v>0.26747408728656608</v>
       </c>
       <c r="L53" s="0">
-        <v>1.6877822480359723</v>
+        <v>0.46338834970124482</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>3.2401938945610254</v>
+        <v>0.63831602944291665</v>
       </c>
       <c r="B54" s="0">
         <v>0.13519644798123237</v>
@@ -2437,30 +2443,30 @@
         <v>0.83418384109305821</v>
       </c>
       <c r="F54" s="0">
-        <v>1.4088955074941891</v>
+        <v>1.5342587412513429</v>
       </c>
       <c r="G54" s="0">
-        <v>3.2401938945610254</v>
+        <v>0.13683269431101147</v>
       </c>
       <c r="H54" s="0">
-        <v>0.13519644798123237</v>
+        <v>0.22341654636554495</v>
       </c>
       <c r="I54" s="0">
-        <v>0.32112585140131655</v>
+        <v>0.2810987550377419</v>
       </c>
       <c r="J54" s="0">
-        <v>0.432569835065235</v>
+        <v>0.8991919950291869</v>
       </c>
       <c r="K54" s="0">
-        <v>0.83418384109305821</v>
+        <v>0.252776315174147</v>
       </c>
       <c r="L54" s="0">
-        <v>1.4088955074941891</v>
+        <v>0.40237269709504131</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>3.29693976793479</v>
+        <v>0.58157015606915197</v>
       </c>
       <c r="B55" s="0">
         <v>0.13377145911132207</v>
@@ -2475,30 +2481,30 @@
         <v>0.83335943976956384</v>
       </c>
       <c r="F55" s="0">
-        <v>1.3659690001285727</v>
+        <v>1.5771852486169593</v>
       </c>
       <c r="G55" s="0">
-        <v>3.29693976793479</v>
+        <v>0.13241572042620503</v>
       </c>
       <c r="H55" s="0">
-        <v>0.13377145911132207</v>
+        <v>0.22487222798891482</v>
       </c>
       <c r="I55" s="0">
-        <v>0.34300552494768688</v>
+        <v>0.27366616370348074</v>
       </c>
       <c r="J55" s="0">
-        <v>0.42500511188909212</v>
+        <v>0.89654393652370323</v>
       </c>
       <c r="K55" s="0">
-        <v>0.83335943976956384</v>
+        <v>0.24187324161954085</v>
       </c>
       <c r="L55" s="0">
-        <v>1.3659690001285727</v>
+        <v>0.35563169278515827</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>3.3573699958452128</v>
+        <v>0.52113992815872923</v>
       </c>
       <c r="B56" s="0">
         <v>0.12753616607690932</v>
@@ -2513,30 +2519,30 @@
         <v>0.63828505165049199</v>
       </c>
       <c r="F56" s="0">
-        <v>1.6556828526110272</v>
+        <v>1.2874713961345048</v>
       </c>
       <c r="G56" s="0">
-        <v>3.3573699958452128</v>
+        <v>0.1252104128911454</v>
       </c>
       <c r="H56" s="0">
-        <v>0.12753616607690932</v>
+        <v>0.22223443080634317</v>
       </c>
       <c r="I56" s="0">
-        <v>0.34314288800726045</v>
+        <v>0.26590080196870886</v>
       </c>
       <c r="J56" s="0">
-        <v>3.050506155796318</v>
+        <v>0.68467362501415108</v>
       </c>
       <c r="K56" s="0">
-        <v>0.63828505165049199</v>
+        <v>0.25103079689680141</v>
       </c>
       <c r="L56" s="0">
-        <v>1.6556828526110272</v>
+        <v>0.32033832436543153</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>3.3671551196433458</v>
+        <v>0.51135480436059622</v>
       </c>
       <c r="B57" s="0">
         <v>0.16774096352407414</v>
@@ -2551,30 +2557,30 @@
         <v>0.40602830486971986</v>
       </c>
       <c r="F57" s="0">
-        <v>2.0045102370431156</v>
+        <v>0.9386440117024164</v>
       </c>
       <c r="G57" s="0">
-        <v>3.3671551196433458</v>
+        <v>0.12331852118502963</v>
       </c>
       <c r="H57" s="0">
-        <v>0.16774096352407414</v>
+        <v>0.26773884823854588</v>
       </c>
       <c r="I57" s="0">
-        <v>0.45280108610005065</v>
+        <v>0.2531453058109891</v>
       </c>
       <c r="J57" s="0">
-        <v>3.9901085339690496</v>
+        <v>0.61143709084783227</v>
       </c>
       <c r="K57" s="0">
-        <v>0.40602830486971986</v>
+        <v>0.25066745924186151</v>
       </c>
       <c r="L57" s="0">
-        <v>2.0045102370431156</v>
+        <v>0.30297689198412259</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>3.2071684276228853</v>
+        <v>0.67134149638105667</v>
       </c>
       <c r="B58" s="0">
         <v>0.1697744806005447</v>
@@ -2589,30 +2595,30 @@
         <v>0.40623582887372506</v>
       </c>
       <c r="F58" s="0">
-        <v>0.71115422933925321</v>
+        <v>2.2320000194062786</v>
       </c>
       <c r="G58" s="0">
-        <v>3.2071684276228853</v>
+        <v>0.11290088727876779</v>
       </c>
       <c r="H58" s="0">
-        <v>0.1697744806005447</v>
+        <v>0.26804003137765209</v>
       </c>
       <c r="I58" s="0">
-        <v>0.35416612330306191</v>
+        <v>0.244532635524006</v>
       </c>
       <c r="J58" s="0">
-        <v>3.7343773369019151</v>
+        <v>0.60546829788990153</v>
       </c>
       <c r="K58" s="0">
-        <v>0.40623582887372506</v>
+        <v>0.24573778446876926</v>
       </c>
       <c r="L58" s="0">
-        <v>0.71115422933925321</v>
+        <v>0.28500710806432239</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>2.3938202962375521</v>
+        <v>1.4846896277663899</v>
       </c>
       <c r="B59" s="0">
         <v>0.79792673647819434</v>
@@ -2627,30 +2633,30 @@
         <v>0.36438698409321868</v>
       </c>
       <c r="F59" s="0">
-        <v>2.1408521994995509</v>
+        <v>0.80230204924598114</v>
       </c>
       <c r="G59" s="0">
-        <v>2.3938202962375521</v>
+        <v>0.1118173834102489</v>
       </c>
       <c r="H59" s="0">
-        <v>0.79792673647819434</v>
+        <v>0.31064772057948326</v>
       </c>
       <c r="I59" s="0">
-        <v>0.35358905139582641</v>
+        <v>0.21223097917991499</v>
       </c>
       <c r="J59" s="0">
-        <v>2.2623819180581433</v>
+        <v>0.36862172759529432</v>
       </c>
       <c r="K59" s="0">
-        <v>0.36438698409321868</v>
+        <v>0.22016685393540072</v>
       </c>
       <c r="L59" s="0">
-        <v>2.1408521994995509</v>
+        <v>0.26995651207747723</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.9075438834102908</v>
+        <v>2.9709660405936513</v>
       </c>
       <c r="B60" s="0">
         <v>1.0191000962155803</v>
@@ -2665,30 +2671,30 @@
         <v>0.31759094755964695</v>
       </c>
       <c r="F60" s="0">
-        <v>2.3864044686037063</v>
+        <v>0.55674978014182575</v>
       </c>
       <c r="G60" s="0">
-        <v>0.9075438834102908</v>
+        <v>0.10893824217864564</v>
       </c>
       <c r="H60" s="0">
-        <v>1.0191000962155803</v>
+        <v>0.25887977142379781</v>
       </c>
       <c r="I60" s="0">
-        <v>0.3532859696545681</v>
+        <v>0.20335563707843385</v>
       </c>
       <c r="J60" s="0">
-        <v>1.048547864277029</v>
+        <v>0.32508929392962205</v>
       </c>
       <c r="K60" s="0">
-        <v>0.31759094755964695</v>
+        <v>0.19325403449173201</v>
       </c>
       <c r="L60" s="0">
-        <v>2.3864044686037063</v>
+        <v>0.25893307182821285</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.57755556149861187</v>
+        <v>3.3009543625053301</v>
       </c>
       <c r="B61" s="0">
         <v>1.016944566689107</v>
@@ -2703,30 +2709,30 @@
         <v>0.31324231308381545</v>
       </c>
       <c r="F61" s="0">
-        <v>1.6773729308431462</v>
+        <v>1.2657813179023858</v>
       </c>
       <c r="G61" s="0">
-        <v>0.57755556149861187</v>
+        <v>0.10828766193229716</v>
       </c>
       <c r="H61" s="0">
-        <v>1.016944566689107</v>
+        <v>0.25715085224220258</v>
       </c>
       <c r="I61" s="0">
-        <v>0.37165103476165601</v>
+        <v>0.19788285467698871</v>
       </c>
       <c r="J61" s="0">
-        <v>0.62240850102492951</v>
+        <v>0.32113776837173669</v>
       </c>
       <c r="K61" s="0">
-        <v>0.31324231308381545</v>
+        <v>0.14986222360286122</v>
       </c>
       <c r="L61" s="0">
-        <v>1.6773729308431462</v>
+        <v>0.24832013162912583</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>1.9528752039397042</v>
+        <v>1.9256347200642379</v>
       </c>
       <c r="B62" s="0">
         <v>0.42056973578839768</v>
@@ -2741,30 +2747,30 @@
         <v>0.23893122077797038</v>
       </c>
       <c r="F62" s="0">
-        <v>0.2709987336951154</v>
+        <v>2.6721555150504166</v>
       </c>
       <c r="G62" s="0">
-        <v>1.9528752039397042</v>
+        <v>0.095463123932703176</v>
       </c>
       <c r="H62" s="0">
-        <v>0.42056973578839768</v>
+        <v>0.18922951007419264</v>
       </c>
       <c r="I62" s="0">
-        <v>0.38121946939008988</v>
+        <v>0.18590915527327767</v>
       </c>
       <c r="J62" s="0">
-        <v>0.58208256813741943</v>
+        <v>0.21220079359636229</v>
       </c>
       <c r="K62" s="0">
-        <v>0.23893122077797038</v>
+        <v>0.10335729651012446</v>
       </c>
       <c r="L62" s="0">
-        <v>0.2709987336951154</v>
+        <v>0.17717340409711616</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>2.8967366937870178</v>
+        <v>0.9817732302169242</v>
       </c>
       <c r="B63" s="0">
         <v>0.21195939619072776</v>
@@ -2779,30 +2785,30 @@
         <v>0.24545886628440297</v>
       </c>
       <c r="F63" s="0">
-        <v>1.3975990632319673</v>
+        <v>1.5455551855135647</v>
       </c>
       <c r="G63" s="0">
-        <v>2.8967366937870178</v>
+        <v>0.10194077181215958</v>
       </c>
       <c r="H63" s="0">
-        <v>0.21195939619072776</v>
+        <v>0.1385972160362702</v>
       </c>
       <c r="I63" s="0">
-        <v>0.47148673120554979</v>
+        <v>1.2157308181143101</v>
       </c>
       <c r="J63" s="0">
-        <v>0.58010054046397408</v>
+        <v>0.20177602000069741</v>
       </c>
       <c r="K63" s="0">
-        <v>0.24545886628440297</v>
+        <v>0.11929339362387066</v>
       </c>
       <c r="L63" s="0">
-        <v>1.3975990632319673</v>
+        <v>0.18231757594299272</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>2.7343371217415795</v>
+        <v>1.1441728022623625</v>
       </c>
       <c r="B64" s="0">
         <v>0.13416276212519099</v>
@@ -2817,30 +2823,30 @@
         <v>0.24863542372976594</v>
       </c>
       <c r="F64" s="0">
-        <v>2.2674943316999912</v>
+        <v>0.67565991704554085</v>
       </c>
       <c r="G64" s="0">
-        <v>2.7343371217415795</v>
+        <v>0.11223738488727203</v>
       </c>
       <c r="H64" s="0">
-        <v>0.13416276212519099</v>
+        <v>0.11184701676384</v>
       </c>
       <c r="I64" s="0">
-        <v>0.479190976759298</v>
+        <v>2.3019904173804036</v>
       </c>
       <c r="J64" s="0">
-        <v>0.57855931735332566</v>
+        <v>0.19850295466529494</v>
       </c>
       <c r="K64" s="0">
-        <v>0.24863542372976594</v>
+        <v>0.13798938332919283</v>
       </c>
       <c r="L64" s="0">
-        <v>2.2674943316999912</v>
+        <v>0.19072095145116597</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>2.3975122210674176</v>
+        <v>1.4809977029365244</v>
       </c>
       <c r="B65" s="0">
         <v>0.13139288516616937</v>
@@ -2855,30 +2861,30 @@
         <v>0.24807620053423557</v>
       </c>
       <c r="F65" s="0">
-        <v>2.6971624343058109</v>
+        <v>0.24599181443972107</v>
       </c>
       <c r="G65" s="0">
-        <v>2.3975122210674176</v>
+        <v>0.11294131540199866</v>
       </c>
       <c r="H65" s="0">
-        <v>0.13139288516616937</v>
+        <v>0.10970951084988588</v>
       </c>
       <c r="I65" s="0">
-        <v>0.4783514517778294</v>
+        <v>2.7129080712088109</v>
       </c>
       <c r="J65" s="0">
-        <v>3.2371930932885862</v>
+        <v>0.18090591819759416</v>
       </c>
       <c r="K65" s="0">
-        <v>0.24807620053423557</v>
+        <v>0.17692977964474743</v>
       </c>
       <c r="L65" s="0">
-        <v>2.6971624343058109</v>
+        <v>0.19283255532162147</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>2.0489916808328079</v>
+        <v>1.8295182431711341</v>
       </c>
       <c r="B66" s="0">
         <v>0.13257726322079041</v>
@@ -2893,30 +2899,30 @@
         <v>0.30358181896746389</v>
       </c>
       <c r="F66" s="0">
-        <v>2.8648028571631343</v>
+        <v>0.078351391582397678</v>
       </c>
       <c r="G66" s="0">
-        <v>2.0489916808328079</v>
+        <v>0.11310406621145457</v>
       </c>
       <c r="H66" s="0">
-        <v>0.13257726322079041</v>
+        <v>0.14218633498980218</v>
       </c>
       <c r="I66" s="0">
-        <v>0.49270408446022701</v>
+        <v>2.7640178571847636</v>
       </c>
       <c r="J66" s="0">
-        <v>6.9260770861739331</v>
+        <v>0.20530888923718149</v>
       </c>
       <c r="K66" s="0">
-        <v>0.30358181896746389</v>
+        <v>0.17987674278850357</v>
       </c>
       <c r="L66" s="0">
-        <v>2.8648028571631343</v>
+        <v>0.19996690091306288</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>2.6515549336855089</v>
+        <v>1.2269549903184331</v>
       </c>
       <c r="B67" s="0">
         <v>0.14604491440498535</v>
@@ -2931,30 +2937,30 @@
         <v>0.57907760603661329</v>
       </c>
       <c r="F67" s="0">
-        <v>2.8896599824130078</v>
+        <v>0.053494266332524187</v>
       </c>
       <c r="G67" s="0">
-        <v>2.6515549336855089</v>
+        <v>2.3678592486183825</v>
       </c>
       <c r="H67" s="0">
-        <v>0.14604491440498535</v>
+        <v>0.1425750663184682</v>
       </c>
       <c r="I67" s="0">
-        <v>1.5782230508364969</v>
+        <v>2.6375421523434173</v>
       </c>
       <c r="J67" s="0">
-        <v>7.2271997910566546</v>
+        <v>0.20347848743401653</v>
       </c>
       <c r="K67" s="0">
-        <v>0.57907760603661329</v>
+        <v>0.19461527922471636</v>
       </c>
       <c r="L67" s="0">
-        <v>2.8896599824130078</v>
+        <v>0.19658011538159939</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>2.4158004334584313</v>
+        <v>1.4627094905455107</v>
       </c>
       <c r="B68" s="0">
         <v>0.14905184616746978</v>
@@ -2969,30 +2975,30 @@
         <v>0.62740000838076637</v>
       </c>
       <c r="F68" s="0">
-        <v>2.8947860015752758</v>
+        <v>0.048368247170256229</v>
       </c>
       <c r="G68" s="0">
-        <v>2.4158004334584313</v>
+        <v>2.3677929400786746</v>
       </c>
       <c r="H68" s="0">
-        <v>0.14905184616746978</v>
+        <v>0.16416104638207413</v>
       </c>
       <c r="I68" s="0">
-        <v>1.5792210031271776</v>
+        <v>2.3398860165609534</v>
       </c>
       <c r="J68" s="0">
-        <v>6.6991858605296706</v>
+        <v>0.19342483905061805</v>
       </c>
       <c r="K68" s="0">
-        <v>0.62740000838076637</v>
+        <v>0.20946869927301837</v>
       </c>
       <c r="L68" s="0">
-        <v>2.8947860015752758</v>
+        <v>0.18796858448131198</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>2.7250985630842219</v>
+        <v>1.1534113609197201</v>
       </c>
       <c r="B69" s="0">
         <v>0.14147409260431573</v>
@@ -3007,30 +3013,30 @@
         <v>0.58299227621963579</v>
       </c>
       <c r="F69" s="0">
-        <v>2.9047878244212701</v>
+        <v>0.03836642432426185</v>
       </c>
       <c r="G69" s="0">
-        <v>2.7250985630842219</v>
+        <v>2.9159209880059409</v>
       </c>
       <c r="H69" s="0">
-        <v>0.14147409260431573</v>
+        <v>2.1836372797882038</v>
       </c>
       <c r="I69" s="0">
-        <v>1.6789994581754941</v>
+        <v>1.9854971654762126</v>
       </c>
       <c r="J69" s="0">
-        <v>6.2117284186955928</v>
+        <v>0.18886902847865211</v>
       </c>
       <c r="K69" s="0">
-        <v>0.58299227621963579</v>
+        <v>0.21125479209413905</v>
       </c>
       <c r="L69" s="0">
-        <v>2.9047878244212701</v>
+        <v>0.17881477094335779</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>3.4654495002663879</v>
+        <v>0.41306042373755414</v>
       </c>
       <c r="B70" s="0">
         <v>0.15282912203674556</v>
@@ -3045,30 +3051,30 @@
         <v>0.44330761720245454</v>
       </c>
       <c r="F70" s="0">
-        <v>2.909667972393474</v>
+        <v>0.033486276352058031</v>
       </c>
       <c r="G70" s="0">
-        <v>3.4654495002663879</v>
+        <v>2.7125710898183968</v>
       </c>
       <c r="H70" s="0">
-        <v>0.15282912203674556</v>
+        <v>2.184481335921598</v>
       </c>
       <c r="I70" s="0">
-        <v>1.2374050192936075</v>
+        <v>1.6004112430435382</v>
       </c>
       <c r="J70" s="0">
-        <v>5.1496472380486651</v>
+        <v>0.18664015176851428</v>
       </c>
       <c r="K70" s="0">
-        <v>0.44330761720245454</v>
+        <v>0.2067831144329747</v>
       </c>
       <c r="L70" s="0">
-        <v>2.909667972393474</v>
+        <v>0.17195729742120361</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>3.5448001150866966</v>
+        <v>0.33370980891724544</v>
       </c>
       <c r="B71" s="0">
         <v>0.77095617930938287</v>
@@ -3083,30 +3089,30 @@
         <v>0.2776407490158907</v>
       </c>
       <c r="F71" s="0">
-        <v>2.9087081489199522</v>
+        <v>0.034446099825579779</v>
       </c>
       <c r="G71" s="0">
-        <v>3.5448001150866966</v>
+        <v>2.7125676897261379</v>
       </c>
       <c r="H71" s="0">
-        <v>0.77095617930938287</v>
+        <v>2.4767902923017866</v>
       </c>
       <c r="I71" s="0">
-        <v>1.2353201916276473</v>
+        <v>1.2513545111024504</v>
       </c>
       <c r="J71" s="0">
-        <v>3.5938105327343535</v>
+        <v>0.18284548328396333</v>
       </c>
       <c r="K71" s="0">
-        <v>0.2776407490158907</v>
+        <v>0.1875625857371169</v>
       </c>
       <c r="L71" s="0">
-        <v>2.9087081489199522</v>
+        <v>0.17069109732205678</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>3.4549929046098926</v>
+        <v>0.4235170193940494</v>
       </c>
       <c r="B72" s="0">
         <v>1.1082540554549281</v>
@@ -3121,30 +3127,30 @@
         <v>0.31739355846734302</v>
       </c>
       <c r="F72" s="0">
-        <v>2.9123423148916339</v>
+        <v>0.030811933853898132</v>
       </c>
       <c r="G72" s="0">
-        <v>3.4549929046098926</v>
+        <v>2.2546009547685433</v>
       </c>
       <c r="H72" s="0">
-        <v>1.1082540554549281</v>
+        <v>1.8171561792789037</v>
       </c>
       <c r="I72" s="0">
-        <v>0.93758414426616876</v>
+        <v>0.9836013021451796</v>
       </c>
       <c r="J72" s="0">
-        <v>2.3426233916991364</v>
+        <v>0.12806331774080792</v>
       </c>
       <c r="K72" s="0">
-        <v>0.31739355846734302</v>
+        <v>0.17597258078066905</v>
       </c>
       <c r="L72" s="0">
-        <v>2.9123423148916339</v>
+        <v>0.17047245941871941</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>3.4258661078160846</v>
+        <v>0.45264381618785743</v>
       </c>
       <c r="B73" s="0">
         <v>1.7039760440379463</v>
@@ -3159,30 +3165,30 @@
         <v>0.44123019810131181</v>
       </c>
       <c r="F73" s="0">
-        <v>2.9090266707028003</v>
+        <v>0.034127578042731699</v>
       </c>
       <c r="G73" s="0">
-        <v>3.4258661078160846</v>
+        <v>1.7548078056061669</v>
       </c>
       <c r="H73" s="0">
-        <v>1.7039760440379463</v>
+        <v>1.8168874394442904</v>
       </c>
       <c r="I73" s="0">
-        <v>0.53463361005893462</v>
+        <v>0.78771347371426248</v>
       </c>
       <c r="J73" s="0">
-        <v>1.6346232154553793</v>
+        <v>0.12736026431410113</v>
       </c>
       <c r="K73" s="0">
-        <v>0.44123019810131181</v>
+        <v>0.16112932355818069</v>
       </c>
       <c r="L73" s="0">
-        <v>2.9090266707028003</v>
+        <v>0.17440774793419619</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>3.4097836076354744</v>
+        <v>0.46872631636846762</v>
       </c>
       <c r="B74" s="0">
         <v>1.4862040161277872</v>
@@ -3197,30 +3203,30 @@
         <v>0.51734316101941924</v>
       </c>
       <c r="F74" s="0">
-        <v>2.8496884058359702</v>
+        <v>0.093465842909561836</v>
       </c>
       <c r="G74" s="0">
-        <v>3.4097836076354744</v>
+        <v>1.2800204738212875</v>
       </c>
       <c r="H74" s="0">
-        <v>1.4862040161277872</v>
+        <v>1.237546937846403</v>
       </c>
       <c r="I74" s="0">
-        <v>0.46213728470185045</v>
+        <v>0.66704542675041334</v>
       </c>
       <c r="J74" s="0">
-        <v>1.2878607618328497</v>
+        <v>0.12504287481222937</v>
       </c>
       <c r="K74" s="0">
-        <v>0.51734316101941924</v>
+        <v>0.31318102785764712</v>
       </c>
       <c r="L74" s="0">
-        <v>2.8496884058359702</v>
+        <v>0.17636339981778476</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>3.4213086951119376</v>
+        <v>0.45720122889200443</v>
       </c>
       <c r="B75" s="0">
         <v>0.95531981279983103</v>
@@ -3235,30 +3241,30 @@
         <v>0.48103662648183204</v>
       </c>
       <c r="F75" s="0">
-        <v>2.8308365881340114</v>
+        <v>0.1123176606115206</v>
       </c>
       <c r="G75" s="0">
-        <v>3.4213086951119376</v>
+        <v>0.87279141401048288</v>
       </c>
       <c r="H75" s="0">
-        <v>0.95531981279983103</v>
+        <v>0.37560965183493994</v>
       </c>
       <c r="I75" s="0">
-        <v>0.45391067586672107</v>
+        <v>0.58720493768077386</v>
       </c>
       <c r="J75" s="0">
-        <v>1.1201997499517728</v>
+        <v>0.12346594829015117</v>
       </c>
       <c r="K75" s="0">
-        <v>0.48103662648183204</v>
+        <v>0.39236042555125061</v>
       </c>
       <c r="L75" s="0">
-        <v>2.8308365881340114</v>
+        <v>0.4636244743640871</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>3.4477753528881196</v>
+        <v>0.43073457111582236</v>
       </c>
       <c r="B76" s="0">
         <v>0.75539179834393277</v>
@@ -3273,30 +3279,30 @@
         <v>0.50988583685867006</v>
       </c>
       <c r="F76" s="0">
-        <v>2.4685573038971822</v>
+        <v>0.4745969448483498</v>
       </c>
       <c r="G76" s="0">
-        <v>3.4477753528881196</v>
+        <v>0.59092964367297496</v>
       </c>
       <c r="H76" s="0">
-        <v>0.75539179834393277</v>
+        <v>0.37514587537935878</v>
       </c>
       <c r="I76" s="0">
-        <v>0.39183363982518021</v>
+        <v>0.52139301342549738</v>
       </c>
       <c r="J76" s="0">
-        <v>1.0044656715726046</v>
+        <v>0.12246073145863735</v>
       </c>
       <c r="K76" s="0">
-        <v>0.50988583685867006</v>
+        <v>0.40582765605537885</v>
       </c>
       <c r="L76" s="0">
-        <v>2.4685573038971822</v>
+        <v>0.91249256514849253</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>2.2243776544782166</v>
+        <v>1.6541322695257255</v>
       </c>
       <c r="B77" s="0">
         <v>0.54629998596873763</v>
@@ -3311,30 +3317,30 @@
         <v>1.2655625231166721</v>
       </c>
       <c r="F77" s="0">
-        <v>2.2915056753581506</v>
+        <v>0.65164857338738136</v>
       </c>
       <c r="G77" s="0">
-        <v>2.2243776544782166</v>
+        <v>0.43524002689704605</v>
       </c>
       <c r="H77" s="0">
-        <v>0.54629998596873763</v>
+        <v>0.20147646606951489</v>
       </c>
       <c r="I77" s="0">
-        <v>0.39118052981857004</v>
+        <v>0.47506977505414766</v>
       </c>
       <c r="J77" s="0">
-        <v>0.95440032021971477</v>
+        <v>0.11998788416747667</v>
       </c>
       <c r="K77" s="0">
-        <v>1.2655625231166721</v>
+        <v>0.3770594944050622</v>
       </c>
       <c r="L77" s="0">
-        <v>2.2915056753581506</v>
+        <v>1.0930402080556751</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>1.4669323539745251</v>
+        <v>2.4115775700294169</v>
       </c>
       <c r="B78" s="0">
         <v>0.37531075546782944</v>
@@ -3349,30 +3355,30 @@
         <v>1.4096701056378416</v>
       </c>
       <c r="F78" s="0">
-        <v>2.2996183176072038</v>
+        <v>0.64353593113832819</v>
       </c>
       <c r="G78" s="0">
-        <v>1.4669323539745251</v>
+        <v>0.35266398358645829</v>
       </c>
       <c r="H78" s="0">
-        <v>0.37531075546782944</v>
+        <v>0.18850319088515338</v>
       </c>
       <c r="I78" s="0">
-        <v>0.38944399346817649</v>
+        <v>0.4473738913297895</v>
       </c>
       <c r="J78" s="0">
-        <v>0.92181433489565623</v>
+        <v>0.1197584444856563</v>
       </c>
       <c r="K78" s="0">
-        <v>1.4096701056378416</v>
+        <v>0.30933133665172968</v>
       </c>
       <c r="L78" s="0">
-        <v>2.2996183176072038</v>
+        <v>1.1506499558748648</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>1.0591895751149456</v>
+        <v>2.8193203488889962</v>
       </c>
       <c r="B79" s="0">
         <v>0.27313686323763298</v>
@@ -3387,30 +3393,30 @@
         <v>1.3520934818496992</v>
       </c>
       <c r="F79" s="0">
-        <v>2.4108294016583511</v>
+        <v>0.53232484708718086</v>
       </c>
       <c r="G79" s="0">
-        <v>1.0591895751149456</v>
+        <v>0.24791219976808629</v>
       </c>
       <c r="H79" s="0">
-        <v>0.27313686323763298</v>
+        <v>0.19947677634525515</v>
       </c>
       <c r="I79" s="0">
-        <v>0.35132363437253117</v>
+        <v>0.41511854103352053</v>
       </c>
       <c r="J79" s="0">
-        <v>0.87646170692088898</v>
+        <v>0.11946087007216355</v>
       </c>
       <c r="K79" s="0">
-        <v>1.3520934818496992</v>
+        <v>0.28228294563494954</v>
       </c>
       <c r="L79" s="0">
-        <v>2.4108294016583511</v>
+        <v>1.1104700902009499</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>1.4996327435132208</v>
+        <v>2.3788771804907212</v>
       </c>
       <c r="B80" s="0">
         <v>0.21719400350331364</v>
@@ -3425,30 +3431,30 @@
         <v>1.4630500603730781</v>
       </c>
       <c r="F80" s="0">
-        <v>2.4825221982655057</v>
+        <v>0.46063205048002631</v>
       </c>
       <c r="G80" s="0">
-        <v>1.4996327435132208</v>
+        <v>0.19405089946052687</v>
       </c>
       <c r="H80" s="0">
-        <v>0.21719400350331364</v>
+        <v>0.20351295294134414</v>
       </c>
       <c r="I80" s="0">
-        <v>0.34740825479670295</v>
+        <v>0.39209791071739258</v>
       </c>
       <c r="J80" s="0">
-        <v>0.84432851964980871</v>
+        <v>0.64761222322448275</v>
       </c>
       <c r="K80" s="0">
-        <v>1.4630500603730781</v>
+        <v>0.28385913542665719</v>
       </c>
       <c r="L80" s="0">
-        <v>2.4825221982655057</v>
+        <v>0.9648584280952569</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>2.6742881801176979</v>
+        <v>1.2042217438862441</v>
       </c>
       <c r="B81" s="0">
         <v>0.18105074007687891</v>
@@ -3463,30 +3469,30 @@
         <v>1.661885778645219</v>
       </c>
       <c r="F81" s="0">
-        <v>2.5046859240126382</v>
+        <v>0.43846832473289377</v>
       </c>
       <c r="G81" s="0">
-        <v>2.6742881801176979</v>
+        <v>0.17630972253802257</v>
       </c>
       <c r="H81" s="0">
-        <v>0.18105074007687891</v>
+        <v>0.2214786888435733</v>
       </c>
       <c r="I81" s="0">
-        <v>0.34565570409399943</v>
+        <v>0.3657982909147533</v>
       </c>
       <c r="J81" s="0">
-        <v>0.80075788138477111</v>
+        <v>0.87841878423070441</v>
       </c>
       <c r="K81" s="0">
-        <v>1.661885778645219</v>
+        <v>0.27422220497692645</v>
       </c>
       <c r="L81" s="0">
-        <v>2.5046859240126382</v>
+        <v>0.77127347800670953</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>3.0445845588137215</v>
+        <v>0.83392536519022054</v>
       </c>
       <c r="B82" s="0">
         <v>0.16396210946040246</v>
@@ -3501,30 +3507,30 @@
         <v>1.2859643650212893</v>
       </c>
       <c r="F82" s="0">
-        <v>2.3357497689649858</v>
+        <v>0.60740447978054624</v>
       </c>
       <c r="G82" s="0">
-        <v>3.0445845588137215</v>
+        <v>0.16338333591608084</v>
       </c>
       <c r="H82" s="0">
-        <v>0.16396210946040246</v>
+        <v>0.22347966740103375</v>
       </c>
       <c r="I82" s="0">
-        <v>0.34342423939106964</v>
+        <v>0.3608836685100939</v>
       </c>
       <c r="J82" s="0">
-        <v>0.74023245790974956</v>
+        <v>0.96885132842118382</v>
       </c>
       <c r="K82" s="0">
-        <v>1.2859643650212893</v>
+        <v>0.26259628183606809</v>
       </c>
       <c r="L82" s="0">
-        <v>2.3357497689649858</v>
+        <v>0.61804290815756679</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>3.1471459125764434</v>
+        <v>0.73136401142749863</v>
       </c>
       <c r="B83" s="0">
         <v>0.15273078394698822</v>
@@ -3539,30 +3545,30 @@
         <v>1.2828873632850981</v>
       </c>
       <c r="F83" s="0">
-        <v>1.5989983966844203</v>
+        <v>1.3441558520611117</v>
       </c>
       <c r="G83" s="0">
-        <v>3.1471459125764434</v>
+        <v>0.15002999734229105</v>
       </c>
       <c r="H83" s="0">
-        <v>0.15273078394698822</v>
+        <v>0.22890027152964001</v>
       </c>
       <c r="I83" s="0">
-        <v>0.34322630197197135</v>
+        <v>0.35660816946660079</v>
       </c>
       <c r="J83" s="0">
-        <v>0.70853094960644891</v>
+        <v>0.98916508780672874</v>
       </c>
       <c r="K83" s="0">
-        <v>1.2828873632850981</v>
+        <v>0.24406104297717593</v>
       </c>
       <c r="L83" s="0">
-        <v>1.5989983966844203</v>
+        <v>0.51352623219339921</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>3.1865186428933683</v>
+        <v>0.69199128111057373</v>
       </c>
       <c r="B84" s="0">
         <v>0.15785175472060919</v>
@@ -3577,30 +3583,30 @@
         <v>1.0317344068578156</v>
       </c>
       <c r="F84" s="0">
-        <v>1.3731830456081757</v>
+        <v>1.5699712031373563</v>
       </c>
       <c r="G84" s="0">
-        <v>3.1865186428933683</v>
+        <v>0.13635721467718095</v>
       </c>
       <c r="H84" s="0">
-        <v>0.15785175472060919</v>
+        <v>0.22214402493647606</v>
       </c>
       <c r="I84" s="0">
-        <v>0.3509180366036897</v>
+        <v>0.35109962964722924</v>
       </c>
       <c r="J84" s="0">
-        <v>0.69130492800498</v>
+        <v>0.96042465651181785</v>
       </c>
       <c r="K84" s="0">
-        <v>1.0317344068578156</v>
+        <v>0.23370424636741108</v>
       </c>
       <c r="L84" s="0">
-        <v>1.3731830456081757</v>
+        <v>0.42397063562102411</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>3.2831341436580428</v>
+        <v>0.59537578034589922</v>
       </c>
       <c r="B85" s="0">
         <v>0.57255263046081573</v>
@@ -3615,30 +3621,30 @@
         <v>0.79465601090742943</v>
       </c>
       <c r="F85" s="0">
-        <v>1.4663326204884957</v>
+        <v>1.4768216282570363</v>
       </c>
       <c r="G85" s="0">
-        <v>3.2831341436580428</v>
+        <v>0.13077452034097453</v>
       </c>
       <c r="H85" s="0">
-        <v>0.57255263046081573</v>
+        <v>0.22265262363657529</v>
       </c>
       <c r="I85" s="0">
-        <v>0.3944965473723368</v>
+        <v>0.34358181248268516</v>
       </c>
       <c r="J85" s="0">
-        <v>0.68174497256884548</v>
+        <v>0.95786714063082801</v>
       </c>
       <c r="K85" s="0">
-        <v>0.79465601090742943</v>
+        <v>0.2183718833849177</v>
       </c>
       <c r="L85" s="0">
-        <v>1.4663326204884957</v>
+        <v>0.37302040759006183</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>3.3561696618153238</v>
+        <v>0.52234026218861818</v>
       </c>
       <c r="B86" s="0">
         <v>1.0690500723785503</v>
@@ -3653,30 +3659,30 @@
         <v>0.63457453654703211</v>
       </c>
       <c r="F86" s="0">
-        <v>1.7912602352640041</v>
+        <v>1.1518940134815279</v>
       </c>
       <c r="G86" s="0">
-        <v>3.3561696618153238</v>
+        <v>0.13033658638460827</v>
       </c>
       <c r="H86" s="0">
-        <v>1.0690500723785503</v>
+        <v>0.22330196963301596</v>
       </c>
       <c r="I86" s="0">
-        <v>0.47192170334217715</v>
+        <v>0.33007044155898896</v>
       </c>
       <c r="J86" s="0">
-        <v>2.677388053578861</v>
+        <v>0.74053514753852023</v>
       </c>
       <c r="K86" s="0">
-        <v>0.63457453654703211</v>
+        <v>0.23256100886084266</v>
       </c>
       <c r="L86" s="0">
-        <v>1.7912602352640041</v>
+        <v>0.34389218450304854</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>3.3914131813970996</v>
+        <v>0.48709674260684244</v>
       </c>
       <c r="B87" s="0">
         <v>0.81593324787979893</v>
@@ -3691,30 +3697,30 @@
         <v>0.53072561101031157</v>
       </c>
       <c r="F87" s="0">
-        <v>2.242302514214658</v>
+        <v>0.70085173453087402</v>
       </c>
       <c r="G87" s="0">
-        <v>3.3914131813970996</v>
+        <v>0.1275934882436893</v>
       </c>
       <c r="H87" s="0">
-        <v>0.81593324787979893</v>
+        <v>0.26364117792728642</v>
       </c>
       <c r="I87" s="0">
-        <v>0.47280973012153038</v>
+        <v>0.31697311930919542</v>
       </c>
       <c r="J87" s="0">
-        <v>4.026922508483989</v>
+        <v>0.63401484234204575</v>
       </c>
       <c r="K87" s="0">
-        <v>0.53072561101031157</v>
+        <v>0.23400971966341286</v>
       </c>
       <c r="L87" s="0">
-        <v>2.242302514214658</v>
+        <v>0.33007186268082989</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>3.1865775293071716</v>
+        <v>0.69193239469677037</v>
       </c>
       <c r="B88" s="0">
         <v>0.4007464285952767</v>
@@ -3729,30 +3735,30 @@
         <v>0.46940910030368688</v>
       </c>
       <c r="F88" s="0">
-        <v>0.68290099251666214</v>
+        <v>2.2602532562288697</v>
       </c>
       <c r="G88" s="0">
-        <v>3.1865775293071716</v>
+        <v>0.12439377707697263</v>
       </c>
       <c r="H88" s="0">
-        <v>0.4007464285952767</v>
+        <v>0.26338366821802744</v>
       </c>
       <c r="I88" s="0">
-        <v>0.38797397671038902</v>
+        <v>0.31007592930317746</v>
       </c>
       <c r="J88" s="0">
-        <v>4.0186007889008106</v>
+        <v>0.62968531360515645</v>
       </c>
       <c r="K88" s="0">
-        <v>0.46940910030368688</v>
+        <v>0.23230312339226106</v>
       </c>
       <c r="L88" s="0">
-        <v>0.68290099251666214</v>
+        <v>0.31414074426593869</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>2.314052818972371</v>
+        <v>1.564457105031571</v>
       </c>
       <c r="B89" s="0">
         <v>0.28346741952779425</v>
@@ -3767,30 +3773,30 @@
         <v>0.3915027408838746</v>
       </c>
       <c r="F89" s="0">
-        <v>2.1068573699308248</v>
+        <v>0.83629687881470716</v>
       </c>
       <c r="G89" s="0">
-        <v>2.314052818972371</v>
+        <v>0.12326953266956758</v>
       </c>
       <c r="H89" s="0">
-        <v>0.28346741952779425</v>
+        <v>0.3120539895562533</v>
       </c>
       <c r="I89" s="0">
-        <v>0.38554878292643951</v>
+        <v>0.27585109950293341</v>
       </c>
       <c r="J89" s="0">
-        <v>2.7866290488843291</v>
+        <v>0.38708040019441448</v>
       </c>
       <c r="K89" s="0">
-        <v>0.3915027408838746</v>
+        <v>0.21263222946700197</v>
       </c>
       <c r="L89" s="0">
-        <v>2.1068573699308248</v>
+        <v>0.3038673781046638</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>0.69871701132748787</v>
+        <v>3.1797929126764544</v>
       </c>
       <c r="B90" s="0">
         <v>0.29934745095480869</v>
@@ -3805,30 +3811,30 @@
         <v>0.35887702404965205</v>
       </c>
       <c r="F90" s="0">
-        <v>2.3796706338201878</v>
+        <v>0.56348361492534416</v>
       </c>
       <c r="G90" s="0">
-        <v>0.69871701132748787</v>
+        <v>0.1236421631800919</v>
       </c>
       <c r="H90" s="0">
-        <v>0.29934745095480869</v>
+        <v>0.26519578835249707</v>
       </c>
       <c r="I90" s="0">
-        <v>0.38015828549177094</v>
+        <v>0.25827538724870736</v>
       </c>
       <c r="J90" s="0">
-        <v>1.3573722184661177</v>
+        <v>0.33415236892652422</v>
       </c>
       <c r="K90" s="0">
-        <v>0.35887702404965205</v>
+        <v>0.17407075076527814</v>
       </c>
       <c r="L90" s="0">
-        <v>2.3796706338201878</v>
+        <v>0.29792286253042605</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>0.79505779117157227</v>
+        <v>3.0834521328323699</v>
       </c>
       <c r="B91" s="0">
         <v>0.29491768526384754</v>
@@ -3843,30 +3849,30 @@
         <v>0.3449121014825795</v>
       </c>
       <c r="F91" s="0">
-        <v>1.6233696142638445</v>
+        <v>1.3197846344816875</v>
       </c>
       <c r="G91" s="0">
-        <v>0.79505779117157227</v>
+        <v>0.1257854009166447</v>
       </c>
       <c r="H91" s="0">
-        <v>0.29491768526384754</v>
+        <v>0.26368156582167379</v>
       </c>
       <c r="I91" s="0">
-        <v>0.39717705382706775</v>
+        <v>0.25704140389590446</v>
       </c>
       <c r="J91" s="0">
-        <v>0.86598011144981502</v>
+        <v>0.32989088986982951</v>
       </c>
       <c r="K91" s="0">
-        <v>0.3449121014825795</v>
+        <v>0.14558031816779463</v>
       </c>
       <c r="L91" s="0">
-        <v>1.6233696142638445</v>
+        <v>0.28828773167741228</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>2.3122265388432588</v>
+        <v>1.5662833851606832</v>
       </c>
       <c r="B92" s="0">
         <v>0.25462523623030042</v>
@@ -3881,30 +3887,30 @@
         <v>0.30127429338617029</v>
       </c>
       <c r="F92" s="0">
-        <v>0.39726503542463754</v>
+        <v>2.5458892133208946</v>
       </c>
       <c r="G92" s="0">
-        <v>2.3122265388432588</v>
+        <v>0.13879154444946334</v>
       </c>
       <c r="H92" s="0">
-        <v>0.25462523623030042</v>
+        <v>0.19007157571673119</v>
       </c>
       <c r="I92" s="0">
-        <v>0.48182879690868829</v>
+        <v>0.26022796103115692</v>
       </c>
       <c r="J92" s="0">
-        <v>0.73663037953254673</v>
+        <v>0.23161058968810047</v>
       </c>
       <c r="K92" s="0">
-        <v>0.30127429338617029</v>
+        <v>0.10782519989643867</v>
       </c>
       <c r="L92" s="0">
-        <v>0.39726503542463754</v>
+        <v>0.23645163309603759</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>3.0372783803269425</v>
+        <v>0.84123154367699948</v>
       </c>
       <c r="B93" s="0">
         <v>0.21055124638714234</v>
@@ -3919,30 +3925,30 @@
         <v>0.28628997143226953</v>
       </c>
       <c r="F93" s="0">
-        <v>0.98773857751062377</v>
+        <v>1.9554156712349082</v>
       </c>
       <c r="G93" s="0">
-        <v>3.0372783803269425</v>
+        <v>0.14480324557969906</v>
       </c>
       <c r="H93" s="0">
-        <v>0.21055124638714234</v>
+        <v>0.13006963450487119</v>
       </c>
       <c r="I93" s="0">
-        <v>0.48186812224756553</v>
+        <v>1.2711994793635943</v>
       </c>
       <c r="J93" s="0">
-        <v>0.74314098162548681</v>
+        <v>0.22426439656475203</v>
       </c>
       <c r="K93" s="0">
-        <v>0.28628997143226953</v>
+        <v>0.11775265355952386</v>
       </c>
       <c r="L93" s="0">
-        <v>0.98773857751062377</v>
+        <v>0.23632577637245167</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>2.7830143957956484</v>
+        <v>1.0954955282082937</v>
       </c>
       <c r="B94" s="0">
         <v>0.17694365599855907</v>
@@ -3957,30 +3963,30 @@
         <v>0.26568671707777997</v>
       </c>
       <c r="F94" s="0">
-        <v>1.7467551009382598</v>
+        <v>1.1963991478072722</v>
       </c>
       <c r="G94" s="0">
-        <v>2.7830143957956484</v>
+        <v>0.14570343010030323</v>
       </c>
       <c r="H94" s="0">
-        <v>0.17694365599855907</v>
+        <v>0.17139443952120678</v>
       </c>
       <c r="I94" s="0">
-        <v>0.45086000429773077</v>
+        <v>2.3595598977617005</v>
       </c>
       <c r="J94" s="0">
-        <v>0.72435490225403898</v>
+        <v>0.22202911360668959</v>
       </c>
       <c r="K94" s="0">
-        <v>0.26568671707777997</v>
+        <v>0.14956877169477023</v>
       </c>
       <c r="L94" s="0">
-        <v>1.7467551009382598</v>
+        <v>0.23203645718770277</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>2.3522588535140523</v>
+        <v>1.5262510704898897</v>
       </c>
       <c r="B95" s="0">
         <v>0.17575464237022687</v>
@@ -3995,30 +4001,30 @@
         <v>0.25729225687162788</v>
       </c>
       <c r="F95" s="0">
-        <v>2.3374301644688731</v>
+        <v>0.60572408427665891</v>
       </c>
       <c r="G95" s="0">
-        <v>2.3522588535140523</v>
+        <v>0.16033484295007094</v>
       </c>
       <c r="H95" s="0">
-        <v>0.17575464237022687</v>
+        <v>0.17198293543921783</v>
       </c>
       <c r="I95" s="0">
-        <v>0.45010853567602394</v>
+        <v>2.7651254156361658</v>
       </c>
       <c r="J95" s="0">
-        <v>3.3605947666564342</v>
+        <v>0.20718045504718816</v>
       </c>
       <c r="K95" s="0">
-        <v>0.25729225687162788</v>
+        <v>0.19091624781805847</v>
       </c>
       <c r="L95" s="0">
-        <v>2.3374301644688731</v>
+        <v>0.2238650077531564</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>1.9850434021844421</v>
+        <v>1.8934665218194999</v>
       </c>
       <c r="B96" s="0">
         <v>0.1738448350092443</v>
@@ -4033,30 +4039,30 @@
         <v>0.39981609288992698</v>
       </c>
       <c r="F96" s="0">
-        <v>2.663655667540429</v>
+        <v>0.27949858120510296</v>
       </c>
       <c r="G96" s="0">
-        <v>1.9850434021844421</v>
+        <v>0.22315471294411135</v>
       </c>
       <c r="H96" s="0">
-        <v>0.1738448350092443</v>
+        <v>0.22613042372001171</v>
       </c>
       <c r="I96" s="0">
-        <v>0.49735467568130898</v>
+        <v>2.8217837574707318</v>
       </c>
       <c r="J96" s="0">
-        <v>7.0880868143042237</v>
+        <v>0.20247291194293415</v>
       </c>
       <c r="K96" s="0">
-        <v>0.39981609288992698</v>
+        <v>0.1994736045605984</v>
       </c>
       <c r="L96" s="0">
-        <v>2.663655667540429</v>
+        <v>0.22593761640694696</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>2.5709580090010911</v>
+        <v>1.307551915002851</v>
       </c>
       <c r="B97" s="0">
         <v>1.0717293540014114</v>
@@ -4071,30 +4077,30 @@
         <v>0.64239887539118279</v>
       </c>
       <c r="F97" s="0">
-        <v>2.8035779727945567</v>
+        <v>0.13957627595097533</v>
       </c>
       <c r="G97" s="0">
-        <v>2.5709580090010911</v>
+        <v>0.2883316781766091</v>
       </c>
       <c r="H97" s="0">
-        <v>1.0717293540014114</v>
+        <v>0.22573431640101804</v>
       </c>
       <c r="I97" s="0">
-        <v>1.5986428939502981</v>
+        <v>2.7114607322551043</v>
       </c>
       <c r="J97" s="0">
-        <v>7.3939742770739674</v>
+        <v>0.20050512501247508</v>
       </c>
       <c r="K97" s="0">
-        <v>0.64239887539118279</v>
+        <v>0.20462690140054202</v>
       </c>
       <c r="L97" s="0">
-        <v>2.8035779727945567</v>
+        <v>0.22396406798556298</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>2.3330284232716778</v>
+        <v>1.5454815007322642</v>
       </c>
       <c r="B98" s="0">
         <v>1.0717938175839692</v>
@@ -4109,30 +4115,30 @@
         <v>0.65808426820782895</v>
       </c>
       <c r="F98" s="0">
-        <v>2.8455598176821257</v>
+        <v>0.097594431063406262</v>
       </c>
       <c r="G98" s="0">
-        <v>2.3330284232716778</v>
+        <v>2.4266701999464382</v>
       </c>
       <c r="H98" s="0">
-        <v>1.0717938175839692</v>
+        <v>0.19616194425114833</v>
       </c>
       <c r="I98" s="0">
-        <v>1.6032976378451798</v>
+        <v>2.3976681573727534</v>
       </c>
       <c r="J98" s="0">
-        <v>6.9485655391894081</v>
+        <v>0.21285310515513101</v>
       </c>
       <c r="K98" s="0">
-        <v>0.65808426820782895</v>
+        <v>0.22165759925140174</v>
       </c>
       <c r="L98" s="0">
-        <v>2.8455598176821257</v>
+        <v>0.21671316436159455</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>2.6550440951273049</v>
+        <v>1.2234658288766371</v>
       </c>
       <c r="B99" s="0">
         <v>0.64355182429508417</v>
@@ -4147,30 +4153,30 @@
         <v>0.54840551942604854</v>
       </c>
       <c r="F99" s="0">
-        <v>2.8606952559059611</v>
+        <v>0.082458992839570922</v>
       </c>
       <c r="G99" s="0">
-        <v>2.6550440951273049</v>
+        <v>2.967011255814453</v>
       </c>
       <c r="H99" s="0">
-        <v>0.64355182429508417</v>
+        <v>2.2722659362975337</v>
       </c>
       <c r="I99" s="0">
-        <v>1.7024147736346311</v>
+        <v>2.0237060738275217</v>
       </c>
       <c r="J99" s="0">
-        <v>6.576615641307205</v>
+        <v>0.21078587911605701</v>
       </c>
       <c r="K99" s="0">
-        <v>0.54840551942604854</v>
+        <v>0.21659720519160894</v>
       </c>
       <c r="L99" s="0">
-        <v>2.8606952559059611</v>
+        <v>0.21105009372124109</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>3.378763167765531</v>
+        <v>0.49974675623841103</v>
       </c>
       <c r="B100" s="0">
         <v>0.29489281580498877</v>
@@ -4185,30 +4191,30 @@
         <v>0.30521471419668961</v>
       </c>
       <c r="F100" s="0">
-        <v>2.8771714837459523</v>
+        <v>0.065982764999579668</v>
       </c>
       <c r="G100" s="0">
-        <v>3.378763167765531</v>
+        <v>3.0197919986029929</v>
       </c>
       <c r="H100" s="0">
-        <v>0.29489281580498877</v>
+        <v>2.2722552631811297</v>
       </c>
       <c r="I100" s="0">
-        <v>1.2689849787874443</v>
+        <v>1.6411058840087509</v>
       </c>
       <c r="J100" s="0">
-        <v>5.4464011823784055</v>
+        <v>0.20686652398991515</v>
       </c>
       <c r="K100" s="0">
-        <v>0.30521471419668961</v>
+        <v>0.20861297646707561</v>
       </c>
       <c r="L100" s="0">
-        <v>2.8771714837459523</v>
+        <v>0.20955036709151145</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>3.4928301411627842</v>
+        <v>0.38567978284115778</v>
       </c>
       <c r="B101" s="0">
         <v>0.22905448668670969</v>
@@ -4223,30 +4229,30 @@
         <v>0.30362124628688975</v>
       </c>
       <c r="F101" s="0">
-        <v>2.8898312499986942</v>
+        <v>0.053322998746837769</v>
       </c>
       <c r="G101" s="0">
-        <v>3.4928301411627842</v>
+        <v>2.7487553362358272</v>
       </c>
       <c r="H101" s="0">
-        <v>0.22905448668670969</v>
+        <v>2.6113672304980526</v>
       </c>
       <c r="I101" s="0">
-        <v>1.2663109441619755</v>
+        <v>1.2944601512508569</v>
       </c>
       <c r="J101" s="0">
-        <v>3.7853363420905044</v>
+        <v>0.2025200096703228</v>
       </c>
       <c r="K101" s="0">
-        <v>0.30362124628688975</v>
+        <v>0.20149717025599592</v>
       </c>
       <c r="L101" s="0">
-        <v>2.8898312499986942</v>
+        <v>0.19989208248351656</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>3.4166334027265823</v>
+        <v>0.46187652127735968</v>
       </c>
       <c r="B102" s="0">
         <v>0.22067866169049996</v>
@@ -4261,30 +4267,30 @@
         <v>0.32053338731998893</v>
       </c>
       <c r="F102" s="0">
-        <v>2.8618734411500832</v>
+        <v>0.081280807595448756</v>
       </c>
       <c r="G102" s="0">
-        <v>3.4166334027265823</v>
+        <v>2.2712338021403951</v>
       </c>
       <c r="H102" s="0">
-        <v>0.22067866169049996</v>
+        <v>1.9364304670759329</v>
       </c>
       <c r="I102" s="0">
-        <v>0.94899624384281422</v>
+        <v>1.0132728748305684</v>
       </c>
       <c r="J102" s="0">
-        <v>2.5085405341957494</v>
+        <v>0.19705813164066632</v>
       </c>
       <c r="K102" s="0">
-        <v>0.32053338731998893</v>
+        <v>0.18341340214794274</v>
       </c>
       <c r="L102" s="0">
-        <v>2.8618734411500832</v>
+        <v>0.20276008949145866</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>3.3584057270523968</v>
+        <v>0.52010419695154519</v>
       </c>
       <c r="B103" s="0">
         <v>1.075155090480332</v>
@@ -4299,30 +4305,30 @@
         <v>0.42764584221999785</v>
       </c>
       <c r="F103" s="0">
-        <v>2.8373217440091745</v>
+        <v>0.10583250473635752</v>
       </c>
       <c r="G103" s="0">
-        <v>3.3584057270523968</v>
+        <v>1.7390975892924505</v>
       </c>
       <c r="H103" s="0">
-        <v>1.075155090480332</v>
+        <v>1.9364217275788707</v>
       </c>
       <c r="I103" s="0">
-        <v>0.53123016778696042</v>
+        <v>0.82745265035771876</v>
       </c>
       <c r="J103" s="0">
-        <v>1.8259224218000958</v>
+        <v>0.19647194883018157</v>
       </c>
       <c r="K103" s="0">
-        <v>0.42764584221999785</v>
+        <v>0.15515806097793</v>
       </c>
       <c r="L103" s="0">
-        <v>2.8373217440091745</v>
+        <v>0.19833617754512367</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>3.339331849956249</v>
+        <v>0.53917807404769302</v>
       </c>
       <c r="B104" s="0">
         <v>1.0963172959840688</v>
@@ -4337,30 +4343,30 @@
         <v>0.52275757192552108</v>
       </c>
       <c r="F104" s="0">
-        <v>2.8240030928954618</v>
+        <v>0.11915115585007019</v>
       </c>
       <c r="G104" s="0">
-        <v>3.339331849956249</v>
+        <v>1.2573093607498149</v>
       </c>
       <c r="H104" s="0">
-        <v>1.0963172959840688</v>
+        <v>1.3104672804961677</v>
       </c>
       <c r="I104" s="0">
-        <v>0.52658233705926583</v>
+        <v>0.71596375465565121</v>
       </c>
       <c r="J104" s="0">
-        <v>1.4847963204724246</v>
+        <v>0.18552329902738779</v>
       </c>
       <c r="K104" s="0">
-        <v>0.52275757192552108</v>
+        <v>0.32028285863864009</v>
       </c>
       <c r="L104" s="0">
-        <v>2.8240030928954618</v>
+        <v>0.20098696368748253</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>3.3861384616068433</v>
+        <v>0.49237146239709872</v>
       </c>
       <c r="B105" s="0">
         <v>0.86842426163266073</v>
@@ -4375,30 +4381,30 @@
         <v>0.47780771159107677</v>
       </c>
       <c r="F105" s="0">
-        <v>2.8154222814491496</v>
+        <v>0.12773196729638236</v>
       </c>
       <c r="G105" s="0">
-        <v>3.3861384616068433</v>
+        <v>0.86386083654270296</v>
       </c>
       <c r="H105" s="0">
-        <v>0.86842426163266073</v>
+        <v>0.40155526438430172</v>
       </c>
       <c r="I105" s="0">
-        <v>0.46666278977137648</v>
+        <v>0.61113673599124596</v>
       </c>
       <c r="J105" s="0">
-        <v>1.3444785523566856</v>
+        <v>0.183863427884319</v>
       </c>
       <c r="K105" s="0">
-        <v>0.47780771159107677</v>
+        <v>0.41150380348182275</v>
       </c>
       <c r="L105" s="0">
-        <v>2.8154222814491496</v>
+        <v>0.48694189743588762</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>3.3940337438663293</v>
+        <v>0.48447618013761273</v>
       </c>
       <c r="B106" s="0">
         <v>1.150087189260895</v>
@@ -4413,30 +4419,30 @@
         <v>0.4841761498427154</v>
       </c>
       <c r="F106" s="0">
-        <v>2.6814170011297787</v>
+        <v>0.26173724761575334</v>
       </c>
       <c r="G106" s="0">
-        <v>3.3940337438663293</v>
+        <v>0.58499000829905612</v>
       </c>
       <c r="H106" s="0">
-        <v>1.150087189260895</v>
+        <v>0.4006466850463129</v>
       </c>
       <c r="I106" s="0">
-        <v>0.41358383114579711</v>
+        <v>0.56025635422577724</v>
       </c>
       <c r="J106" s="0">
-        <v>1.2785860926623844</v>
+        <v>0.1830702895962103</v>
       </c>
       <c r="K106" s="0">
-        <v>0.4841761498427154</v>
+        <v>0.42325690520151493</v>
       </c>
       <c r="L106" s="0">
-        <v>2.6814170011297787</v>
+        <v>0.91495315086944573</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>2.1954359281796871</v>
+        <v>1.6830739958242549</v>
       </c>
       <c r="B107" s="0">
         <v>1.4023274567293105</v>
@@ -4451,30 +4457,30 @@
         <v>1.2556429654144805</v>
       </c>
       <c r="F107" s="0">
-        <v>2.5937669786529605</v>
+        <v>0.34938727009257153</v>
       </c>
       <c r="G107" s="0">
-        <v>2.1954359281796871</v>
+        <v>0.42790376491900439</v>
       </c>
       <c r="H107" s="0">
-        <v>1.4023274567293105</v>
+        <v>0.22300461676050179</v>
       </c>
       <c r="I107" s="0">
-        <v>0.41195420509726416</v>
+        <v>0.53080043880904071</v>
       </c>
       <c r="J107" s="0">
-        <v>1.1982294143190741</v>
+        <v>0.18033712669908294</v>
       </c>
       <c r="K107" s="0">
-        <v>1.2556429654144805</v>
+        <v>0.39447650174951149</v>
       </c>
       <c r="L107" s="0">
-        <v>2.5937669786529605</v>
+        <v>1.0909681139188097</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>1.4507162346973193</v>
+        <v>2.4277936893066228</v>
       </c>
       <c r="B108" s="0">
         <v>0.80457750434602204</v>
@@ -4489,30 +4495,30 @@
         <v>1.4194793296665722</v>
       </c>
       <c r="F108" s="0">
-        <v>2.3917641339695646</v>
+        <v>0.55139011477596744</v>
       </c>
       <c r="G108" s="0">
-        <v>1.4507162346973193</v>
+        <v>0.32579631894655225</v>
       </c>
       <c r="H108" s="0">
-        <v>0.80457750434602204</v>
+        <v>0.18398165701712349</v>
       </c>
       <c r="I108" s="0">
-        <v>0.40481095506872428</v>
+        <v>0.5025850994488904</v>
       </c>
       <c r="J108" s="0">
-        <v>1.1613428135915118</v>
+        <v>0.18024196732794842</v>
       </c>
       <c r="K108" s="0">
-        <v>1.4194793296665722</v>
+        <v>0.32668150809691948</v>
       </c>
       <c r="L108" s="0">
-        <v>2.3917641339695646</v>
+        <v>1.1541751506410673</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>1.074300221272763</v>
+        <v>2.8042097027311792</v>
       </c>
       <c r="B109" s="0">
         <v>0.36188526115797448</v>
@@ -4527,30 +4533,30 @@
         <v>1.3620844397613192</v>
       </c>
       <c r="F109" s="0">
-        <v>2.3605060500438539</v>
+        <v>0.58264819870167806</v>
       </c>
       <c r="G109" s="0">
-        <v>1.074300221272763</v>
+        <v>0.27033253027673076</v>
       </c>
       <c r="H109" s="0">
-        <v>0.36188526115797448</v>
+        <v>0.18317363206737025</v>
       </c>
       <c r="I109" s="0">
-        <v>0.37958816436960147</v>
+        <v>0.47362754610288715</v>
       </c>
       <c r="J109" s="0">
-        <v>1.1169588474613634</v>
+        <v>0.18001236691598374</v>
       </c>
       <c r="K109" s="0">
-        <v>1.3620844397613192</v>
+        <v>0.28618441128379041</v>
       </c>
       <c r="L109" s="0">
-        <v>2.3605060500438539</v>
+        <v>1.1312821780675657</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>1.6611396636937594</v>
+        <v>2.2173702603101826</v>
       </c>
       <c r="B110" s="0">
         <v>0.24828951212002523</v>
@@ -4565,30 +4571,30 @@
         <v>1.4926188102634048</v>
       </c>
       <c r="F110" s="0">
-        <v>2.3650930399289289</v>
+        <v>0.57806120881660306</v>
       </c>
       <c r="G110" s="0">
-        <v>1.6611396636937594</v>
+        <v>0.23142458730232857</v>
       </c>
       <c r="H110" s="0">
-        <v>0.24828951212002523</v>
+        <v>0.18799644216886585</v>
       </c>
       <c r="I110" s="0">
-        <v>0.3713477123921079</v>
+        <v>0.45125202214612448</v>
       </c>
       <c r="J110" s="0">
-        <v>1.0235411117491993</v>
+        <v>0.65744655558886844</v>
       </c>
       <c r="K110" s="0">
-        <v>1.4926188102634048</v>
+        <v>0.28076084227862075</v>
       </c>
       <c r="L110" s="0">
-        <v>2.3650930399289289</v>
+        <v>0.9834861461591301</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>2.7779587747428045</v>
+        <v>1.1005511492611375</v>
       </c>
       <c r="B111" s="0">
         <v>0.22633265412963982</v>
@@ -4603,30 +4609,30 @@
         <v>1.6963976329129273</v>
       </c>
       <c r="F111" s="0">
-        <v>2.4117632146022205</v>
+        <v>0.53139103414331146</v>
       </c>
       <c r="G111" s="0">
-        <v>2.7779587747428045</v>
+        <v>0.19163058385266007</v>
       </c>
       <c r="H111" s="0">
-        <v>0.22633265412963982</v>
+        <v>0.20339596093842716</v>
       </c>
       <c r="I111" s="0">
-        <v>0.36929021903919501</v>
+        <v>0.426345288427111</v>
       </c>
       <c r="J111" s="0">
-        <v>0.98912149903850588</v>
+        <v>0.88039243080412133</v>
       </c>
       <c r="K111" s="0">
-        <v>1.6963976329129273</v>
+        <v>0.27261527489849074</v>
       </c>
       <c r="L111" s="0">
-        <v>2.4117632146022205</v>
+        <v>0.80203266114115979</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>3.0938686588486566</v>
+        <v>0.78464126515528543</v>
       </c>
       <c r="B112" s="0">
         <v>0.20723481691751189</v>
@@ -4641,30 +4647,30 @@
         <v>1.544920265780523</v>
       </c>
       <c r="F112" s="0">
-        <v>1.9460178335932625</v>
+        <v>0.99713641515226947</v>
       </c>
       <c r="G112" s="0">
-        <v>3.0938686588486566</v>
+        <v>0.17755787544672932</v>
       </c>
       <c r="H112" s="0">
-        <v>0.20723481691751189</v>
+        <v>0.20531764559990764</v>
       </c>
       <c r="I112" s="0">
-        <v>0.37369626300718584</v>
+        <v>0.41948674855276064</v>
       </c>
       <c r="J112" s="0">
-        <v>0.93843558888162482</v>
+        <v>0.8793767576357715</v>
       </c>
       <c r="K112" s="0">
-        <v>1.544920265780523</v>
+        <v>0.25225677838331972</v>
       </c>
       <c r="L112" s="0">
-        <v>1.9460178335932625</v>
+        <v>0.65123482488278917</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>3.1705564634751142</v>
+        <v>0.70795346052882779</v>
       </c>
       <c r="B113" s="0">
         <v>0.19035282677624893</v>
@@ -4679,30 +4685,30 @@
         <v>1.2836100570364688</v>
       </c>
       <c r="F113" s="0">
-        <v>1.3540710200945583</v>
+        <v>1.5890832286509737</v>
       </c>
       <c r="G113" s="0">
-        <v>3.1705564634751142</v>
+        <v>0.1692938632078794</v>
       </c>
       <c r="H113" s="0">
-        <v>0.19035282677624893</v>
+        <v>0.22047827745470636</v>
       </c>
       <c r="I113" s="0">
-        <v>0.37403570416119042</v>
+        <v>0.41445889710544492</v>
       </c>
       <c r="J113" s="0">
-        <v>0.90474620758506685</v>
+        <v>0.96503307899685575</v>
       </c>
       <c r="K113" s="0">
-        <v>1.2836100570364688</v>
+        <v>0.2303391032202517</v>
       </c>
       <c r="L113" s="0">
-        <v>1.3540710200945583</v>
+        <v>0.53677423563805104</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>3.2445122439819585</v>
+        <v>0.63399768002198353</v>
       </c>
       <c r="B114" s="0">
         <v>0.18570740976215913</v>
@@ -4717,30 +4723,30 @@
         <v>1.0072412075116159</v>
       </c>
       <c r="F114" s="0">
-        <v>1.3142964603661933</v>
+        <v>1.6288577883793387</v>
       </c>
       <c r="G114" s="0">
-        <v>3.2445122439819585</v>
+        <v>0.15760871848203073</v>
       </c>
       <c r="H114" s="0">
-        <v>0.18570740976215913</v>
+        <v>0.21761876950470949</v>
       </c>
       <c r="I114" s="0">
-        <v>0.37264093309015017</v>
+        <v>0.40935086364968581</v>
       </c>
       <c r="J114" s="0">
-        <v>0.89255647741905997</v>
+        <v>0.94440356752044452</v>
       </c>
       <c r="K114" s="0">
-        <v>1.0072412075116159</v>
+        <v>0.2088117512795471</v>
       </c>
       <c r="L114" s="0">
-        <v>1.3142964603661933</v>
+        <v>0.46569182500836548</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>3.3267382601728421</v>
+        <v>0.55177166383109988</v>
       </c>
       <c r="B115" s="0">
         <v>0.18169211051346937</v>
@@ -4755,30 +4761,30 @@
         <v>0.76657814159727278</v>
       </c>
       <c r="F115" s="0">
-        <v>1.4657788293723313</v>
+        <v>1.4773754193732007</v>
       </c>
       <c r="G115" s="0">
-        <v>3.3267382601728421</v>
+        <v>0.14959583618032893</v>
       </c>
       <c r="H115" s="0">
-        <v>0.18169211051346937</v>
+        <v>0.21771574055415108</v>
       </c>
       <c r="I115" s="0">
-        <v>0.40576531898053364</v>
+        <v>0.40265604312795966</v>
       </c>
       <c r="J115" s="0">
-        <v>0.89519234652175261</v>
+        <v>0.86002507022837205</v>
       </c>
       <c r="K115" s="0">
-        <v>0.76657814159727278</v>
+        <v>0.19466476004593156</v>
       </c>
       <c r="L115" s="0">
-        <v>1.4657788293723313</v>
+        <v>0.42810798013780482</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>3.3995911635061096</v>
+        <v>0.47891876049783244</v>
       </c>
       <c r="B116" s="0">
         <v>0.16894565832773636</v>
@@ -4793,30 +4799,30 @@
         <v>0.61539100893476051</v>
       </c>
       <c r="F116" s="0">
-        <v>1.7996954463188353</v>
+        <v>1.1434588024266967</v>
       </c>
       <c r="G116" s="0">
-        <v>3.3995911635061096</v>
+        <v>0.15095358382458243</v>
       </c>
       <c r="H116" s="0">
-        <v>0.16894565832773636</v>
+        <v>0.21718851846787204</v>
       </c>
       <c r="I116" s="0">
-        <v>0.4061615120769459</v>
+        <v>0.38568490336141897</v>
       </c>
       <c r="J116" s="0">
-        <v>2.5045590660357484</v>
+        <v>0.85859134366723144</v>
       </c>
       <c r="K116" s="0">
-        <v>0.61539100893476051</v>
+        <v>0.21832528769393714</v>
       </c>
       <c r="L116" s="0">
-        <v>1.7996954463188353</v>
+        <v>0.39349008799428586</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>3.4098263239485598</v>
+        <v>0.46868360005538223</v>
       </c>
       <c r="B117" s="0">
         <v>0.18102452839561831</v>
@@ -4831,30 +4837,30 @@
         <v>0.52622830999370851</v>
       </c>
       <c r="F117" s="0">
-        <v>2.0216151565143825</v>
+        <v>0.92153909223114949</v>
       </c>
       <c r="G117" s="0">
-        <v>3.4098263239485598</v>
+        <v>0.15134167827824271</v>
       </c>
       <c r="H117" s="0">
-        <v>0.18102452839561831</v>
+        <v>0.2747167961336241</v>
       </c>
       <c r="I117" s="0">
-        <v>0.48571422199175707</v>
+        <v>0.37246494246647177</v>
       </c>
       <c r="J117" s="0">
-        <v>4.0520248370103786</v>
+        <v>0.60047682333663899</v>
       </c>
       <c r="K117" s="0">
-        <v>0.52622830999370851</v>
+        <v>0.22834412212249375</v>
       </c>
       <c r="L117" s="0">
-        <v>2.0216151565143825</v>
+        <v>0.37396142842541652</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>3.1712194208435571</v>
+        <v>0.70729050316038489</v>
       </c>
       <c r="B118" s="0">
         <v>0.19885423215076875</v>
@@ -4869,30 +4875,30 @@
         <v>0.46445893678981731</v>
       </c>
       <c r="F118" s="0">
-        <v>0.70677403225497204</v>
+        <v>2.2363802164905602</v>
       </c>
       <c r="G118" s="0">
-        <v>3.1712194208435571</v>
+        <v>0.14812800481241117</v>
       </c>
       <c r="H118" s="0">
-        <v>0.19885423215076875</v>
+        <v>0.27417593475278645</v>
       </c>
       <c r="I118" s="0">
-        <v>0.39736507812465</v>
+        <v>0.36195923210757758</v>
       </c>
       <c r="J118" s="0">
-        <v>4.1566308822048157</v>
+        <v>0.60012306264422866</v>
       </c>
       <c r="K118" s="0">
-        <v>0.46445893678981731</v>
+        <v>0.22505790291903127</v>
       </c>
       <c r="L118" s="0">
-        <v>0.70677403225497204</v>
+        <v>0.35746153717971257</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>2.2753373958381391</v>
+        <v>1.6031725281658029</v>
       </c>
       <c r="B119" s="0">
         <v>1.1023349527451412</v>
@@ -4907,30 +4913,30 @@
         <v>0.41744714409580103</v>
       </c>
       <c r="F119" s="0">
-        <v>2.1377564932911288</v>
+        <v>0.80539775545440317</v>
       </c>
       <c r="G119" s="0">
-        <v>2.2753373958381391</v>
+        <v>0.14793169136365233</v>
       </c>
       <c r="H119" s="0">
-        <v>1.1023349527451412</v>
+        <v>0.32256033936210876</v>
       </c>
       <c r="I119" s="0">
-        <v>0.39373920351404301</v>
+        <v>0.32849519545172967</v>
       </c>
       <c r="J119" s="0">
-        <v>3.0574179498551528</v>
+        <v>0.49581290771026204</v>
       </c>
       <c r="K119" s="0">
-        <v>0.41744714409580103</v>
+        <v>0.20282104020537309</v>
       </c>
       <c r="L119" s="0">
-        <v>2.1377564932911288</v>
+        <v>0.33969881324233109</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>0.58896629532363964</v>
+        <v>3.2895436286803026</v>
       </c>
       <c r="B120" s="0">
         <v>1.4375620126473785</v>
@@ -4945,30 +4951,30 @@
         <v>0.38979072624470973</v>
       </c>
       <c r="F120" s="0">
-        <v>2.4169305599201443</v>
+        <v>0.52622368882538773</v>
       </c>
       <c r="G120" s="0">
-        <v>0.58896629532363964</v>
+        <v>0.15003473161524963</v>
       </c>
       <c r="H120" s="0">
-        <v>1.4375620126473785</v>
+        <v>0.27777451937504377</v>
       </c>
       <c r="I120" s="0">
-        <v>0.39308874474335359</v>
+        <v>0.3200131147466071</v>
       </c>
       <c r="J120" s="0">
-        <v>1.5742248211443928</v>
+        <v>0.30672436782360962</v>
       </c>
       <c r="K120" s="0">
-        <v>0.38979072624470973</v>
+        <v>0.17867736501978534</v>
       </c>
       <c r="L120" s="0">
-        <v>2.4169305599201443</v>
+        <v>0.3297468835949588</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>1.0279362425099916</v>
+        <v>2.8505736814939504</v>
       </c>
       <c r="B121" s="0">
         <v>0.82803106479970168</v>
@@ -4983,30 +4989,30 @@
         <v>0.37547206755667878</v>
       </c>
       <c r="F121" s="0">
-        <v>1.6667784516051329</v>
+        <v>1.2763757971403991</v>
       </c>
       <c r="G121" s="0">
-        <v>1.0279362425099916</v>
+        <v>0.15266973233653994</v>
       </c>
       <c r="H121" s="0">
-        <v>0.82803106479970168</v>
+        <v>0.27630751077028848</v>
       </c>
       <c r="I121" s="0">
-        <v>0.41986602117607391</v>
+        <v>0.30920578362863205</v>
       </c>
       <c r="J121" s="0">
-        <v>1.0565478574743437</v>
+        <v>0.30554221486071786</v>
       </c>
       <c r="K121" s="0">
-        <v>0.37547206755667878</v>
+        <v>0.1428395725976542</v>
       </c>
       <c r="L121" s="0">
-        <v>1.6667784516051329</v>
+        <v>0.31551922797071225</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>2.4407382349230278</v>
+        <v>1.4377716890809142</v>
       </c>
       <c r="B122" s="0">
         <v>0.36218911051676245</v>
@@ -5021,30 +5027,30 @@
         <v>0.29716937855660303</v>
       </c>
       <c r="F122" s="0">
-        <v>0.401247950128724</v>
+        <v>2.5419062986168082</v>
       </c>
       <c r="G122" s="0">
-        <v>2.4407382349230278</v>
+        <v>0.20489823141313079</v>
       </c>
       <c r="H122" s="0">
-        <v>0.36218911051676245</v>
+        <v>0.20951878880648422</v>
       </c>
       <c r="I122" s="0">
-        <v>0.41202616373224499</v>
+        <v>0.32353174629056375</v>
       </c>
       <c r="J122" s="0">
-        <v>0.8831652554872389</v>
+        <v>0.25805514471078095</v>
       </c>
       <c r="K122" s="0">
-        <v>0.29716937855660303</v>
+        <v>0.19129209495473903</v>
       </c>
       <c r="L122" s="0">
-        <v>0.401247950128724</v>
+        <v>0.25342231774422308</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>3.0230436987639147</v>
+        <v>0.85546622524002736</v>
       </c>
       <c r="B123" s="0">
         <v>0.21939554077859946</v>
@@ -5059,30 +5065,30 @@
         <v>0.29973284113236126</v>
       </c>
       <c r="F123" s="0">
-        <v>0.94609829393798872</v>
+        <v>1.9970559548075433</v>
       </c>
       <c r="G123" s="0">
-        <v>3.0230436987639147</v>
+        <v>0.20540889899763176</v>
       </c>
       <c r="H123" s="0">
-        <v>0.21939554077859946</v>
+        <v>0.17559911606325754</v>
       </c>
       <c r="I123" s="0">
-        <v>0.51437955006314662</v>
+        <v>1.3290192376982832</v>
       </c>
       <c r="J123" s="0">
-        <v>0.88265537139133687</v>
+        <v>0.21719912237414662</v>
       </c>
       <c r="K123" s="0">
-        <v>0.29973284113236126</v>
+        <v>0.19111767904435842</v>
       </c>
       <c r="L123" s="0">
-        <v>0.94609829393798872</v>
+        <v>0.25958131512194299</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>2.8034425187745771</v>
+        <v>1.0750674052293649</v>
       </c>
       <c r="B124" s="0">
         <v>0.18764053718109655</v>
@@ -5097,30 +5103,30 @@
         <v>0.28997765984691065</v>
       </c>
       <c r="F124" s="0">
-        <v>1.770204711902051</v>
+        <v>1.172949536843481</v>
       </c>
       <c r="G124" s="0">
-        <v>2.8034425187745771</v>
+        <v>0.20545983766923584</v>
       </c>
       <c r="H124" s="0">
-        <v>0.18764053718109655</v>
+        <v>0.17220191129068951</v>
       </c>
       <c r="I124" s="0">
-        <v>0.50426209732545979</v>
+        <v>2.3946353158128275</v>
       </c>
       <c r="J124" s="0">
-        <v>0.87560126910887726</v>
+        <v>0.2147258640453229</v>
       </c>
       <c r="K124" s="0">
-        <v>0.28997765984691065</v>
+        <v>0.22762458419193732</v>
       </c>
       <c r="L124" s="0">
-        <v>1.770204711902051</v>
+        <v>0.26596845117399465</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>2.5159119958290459</v>
+        <v>1.3625979281748961</v>
       </c>
       <c r="B125" s="0">
         <v>0.16966776462996722</v>
@@ -5135,30 +5141,30 @@
         <v>0.27728614538703711</v>
       </c>
       <c r="F125" s="0">
-        <v>2.3668388236073254</v>
+        <v>0.57631542513820655</v>
       </c>
       <c r="G125" s="0">
-        <v>2.5159119958290459</v>
+        <v>0.20944338219078115</v>
       </c>
       <c r="H125" s="0">
-        <v>0.16966776462996722</v>
+        <v>0.16642593188151</v>
       </c>
       <c r="I125" s="0">
-        <v>0.50429689987598569</v>
+        <v>2.8069129927681655</v>
       </c>
       <c r="J125" s="0">
-        <v>3.4968235886288914</v>
+        <v>0.20145959136290598</v>
       </c>
       <c r="K125" s="0">
-        <v>0.27728614538703711</v>
+        <v>0.24920110677541829</v>
       </c>
       <c r="L125" s="0">
-        <v>2.3668388236073254</v>
+        <v>0.2667529455340053</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>2.2292374206243086</v>
+        <v>1.6492725033796334</v>
       </c>
       <c r="B126" s="0">
         <v>0.16716882396292088</v>
@@ -5173,30 +5179,30 @@
         <v>0.32468060472445442</v>
       </c>
       <c r="F126" s="0">
-        <v>2.6750650973812156</v>
+        <v>0.26808915136431644</v>
       </c>
       <c r="G126" s="0">
-        <v>2.2292374206243086</v>
+        <v>0.20700016180826189</v>
       </c>
       <c r="H126" s="0">
-        <v>0.16716882396292088</v>
+        <v>0.21379569978414675</v>
       </c>
       <c r="I126" s="0">
-        <v>0.53240401996373665</v>
+        <v>2.8728256622541326</v>
       </c>
       <c r="J126" s="0">
-        <v>7.1816890897387866</v>
+        <v>0.19102506765418648</v>
       </c>
       <c r="K126" s="0">
-        <v>0.32468060472445442</v>
+        <v>0.27215962359083828</v>
       </c>
       <c r="L126" s="0">
-        <v>2.6750650973812156</v>
+        <v>0.26673243589016682</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>2.8514181702793815</v>
+        <v>1.0270917537245605</v>
       </c>
       <c r="B127" s="0">
         <v>0.17621920809795519</v>
@@ -5211,30 +5217,30 @@
         <v>0.59909907724706157</v>
       </c>
       <c r="F127" s="0">
-        <v>2.7979900623811087</v>
+        <v>0.1451641863644233</v>
       </c>
       <c r="G127" s="0">
-        <v>2.8514181702793815</v>
+        <v>0.26073757936179337</v>
       </c>
       <c r="H127" s="0">
-        <v>0.17621920809795519</v>
+        <v>0.23338076614200781</v>
       </c>
       <c r="I127" s="0">
-        <v>1.6252985882921691</v>
+        <v>2.7523225164621419</v>
       </c>
       <c r="J127" s="0">
-        <v>7.4429402635566664</v>
+        <v>0.18913535166080922</v>
       </c>
       <c r="K127" s="0">
-        <v>0.59909907724706157</v>
+        <v>0.26661523721603936</v>
       </c>
       <c r="L127" s="0">
-        <v>2.7979900623811087</v>
+        <v>0.26815933352405613</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>2.577397241185182</v>
+        <v>1.30111268281876</v>
       </c>
       <c r="B128" s="0">
         <v>0.18205555920768865</v>
@@ -5249,30 +5255,30 @@
         <v>0.64514061722454119</v>
       </c>
       <c r="F128" s="0">
-        <v>2.8184425957971264</v>
+        <v>0.12471165294840558</v>
       </c>
       <c r="G128" s="0">
-        <v>2.577397241185182</v>
+        <v>2.3953140372938249</v>
       </c>
       <c r="H128" s="0">
-        <v>0.18205555920768865</v>
+        <v>0.23416447604878687</v>
       </c>
       <c r="I128" s="0">
-        <v>1.7215283948771389</v>
+        <v>2.4449589598059527</v>
       </c>
       <c r="J128" s="0">
-        <v>7.0365037660107213</v>
+        <v>0.187512492845092</v>
       </c>
       <c r="K128" s="0">
-        <v>0.64514061722454119</v>
+        <v>0.25314503914224334</v>
       </c>
       <c r="L128" s="0">
-        <v>2.8184425957971264</v>
+        <v>0.25621226978381401</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>2.8593506116678533</v>
+        <v>1.0191593123360887</v>
       </c>
       <c r="B129" s="0">
         <v>0.18833101986517675</v>
@@ -5287,30 +5293,30 @@
         <v>0.57845560179590805</v>
       </c>
       <c r="F129" s="0">
-        <v>2.8284194138498697</v>
+        <v>0.11473483489566227</v>
       </c>
       <c r="G129" s="0">
-        <v>2.8593506116678533</v>
+        <v>2.9242816732254266</v>
       </c>
       <c r="H129" s="0">
-        <v>0.18833101986517675</v>
+        <v>2.289711014028819</v>
       </c>
       <c r="I129" s="0">
-        <v>1.7236011577905836</v>
+        <v>2.0498142013100451</v>
       </c>
       <c r="J129" s="0">
-        <v>6.7045648115370611</v>
+        <v>0.18119676193860271</v>
       </c>
       <c r="K129" s="0">
-        <v>0.57845560179590805</v>
+        <v>0.25283435995552705</v>
       </c>
       <c r="L129" s="0">
-        <v>2.8284194138498697</v>
+        <v>0.24248819535479874</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>3.4550307231359372</v>
+        <v>0.42347920086800483</v>
       </c>
       <c r="B130" s="0">
         <v>0.21841830216802569</v>
@@ -5325,30 +5331,30 @@
         <v>0.42890279649248364</v>
       </c>
       <c r="F130" s="0">
-        <v>2.8420889691137825</v>
+        <v>0.10106527963174949</v>
       </c>
       <c r="G130" s="0">
-        <v>3.4550307231359372</v>
+        <v>2.9816440691433059</v>
       </c>
       <c r="H130" s="0">
-        <v>0.21841830216802569</v>
+        <v>2.2901016825155613</v>
       </c>
       <c r="I130" s="0">
-        <v>1.2875487224983651</v>
+        <v>1.6430138624833848</v>
       </c>
       <c r="J130" s="0">
-        <v>5.5641951556722073</v>
+        <v>0.18038286841011386</v>
       </c>
       <c r="K130" s="0">
-        <v>0.42890279649248364</v>
+        <v>0.25471022403629573</v>
       </c>
       <c r="L130" s="0">
-        <v>2.8420889691137825</v>
+        <v>0.24977317610462879</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>3.4974531739889412</v>
+        <v>0.38105675001500083</v>
       </c>
       <c r="B131" s="0">
         <v>0.966739024543388</v>
@@ -5363,30 +5369,30 @@
         <v>0.32535240329301995</v>
       </c>
       <c r="F131" s="0">
-        <v>2.8577353555618323</v>
+        <v>0.085418893183699662</v>
       </c>
       <c r="G131" s="0">
-        <v>3.4974531739889412</v>
+        <v>2.7146058603205585</v>
       </c>
       <c r="H131" s="0">
-        <v>0.966739024543388</v>
+        <v>2.5884172515328623</v>
       </c>
       <c r="I131" s="0">
-        <v>1.2853931011674711</v>
+        <v>1.2894438687254011</v>
       </c>
       <c r="J131" s="0">
-        <v>3.9487985106400552</v>
+        <v>0.17901215372317492</v>
       </c>
       <c r="K131" s="0">
-        <v>0.32535240329301995</v>
+        <v>0.24099917723065897</v>
       </c>
       <c r="L131" s="0">
-        <v>2.8577353555618323</v>
+        <v>0.24258845907709559</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>3.4421880144924852</v>
+        <v>0.43632190951145677</v>
       </c>
       <c r="B132" s="0">
         <v>1.0738373858393002</v>
@@ -5401,30 +5407,30 @@
         <v>0.32806345663244252</v>
       </c>
       <c r="F132" s="0">
-        <v>2.8748832670776987</v>
+        <v>0.068270981667833297</v>
       </c>
       <c r="G132" s="0">
-        <v>3.4421880144924852</v>
+        <v>2.262489835826059</v>
       </c>
       <c r="H132" s="0">
-        <v>1.0738373858393002</v>
+        <v>1.9037275783362166</v>
       </c>
       <c r="I132" s="0">
-        <v>0.97690976507064586</v>
+        <v>1.0425516734933298</v>
       </c>
       <c r="J132" s="0">
-        <v>2.622250811112961</v>
+        <v>0.16032865513375003</v>
       </c>
       <c r="K132" s="0">
-        <v>0.32806345663244252</v>
+        <v>0.23920125479438531</v>
       </c>
       <c r="L132" s="0">
-        <v>2.8748832670776987</v>
+        <v>0.23518123250748219</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>3.3953548268699554</v>
+        <v>0.48315509713398663</v>
       </c>
       <c r="B133" s="0">
         <v>1.5515337607096562</v>
@@ -5439,30 +5445,30 @@
         <v>0.48708532332155025</v>
       </c>
       <c r="F133" s="0">
-        <v>2.8853943858342186</v>
+        <v>0.057759862911313409</v>
       </c>
       <c r="G133" s="0">
-        <v>3.3953548268699554</v>
+        <v>1.6970522344294423</v>
       </c>
       <c r="H133" s="0">
-        <v>1.5515337607096562</v>
+        <v>1.9039727840353271</v>
       </c>
       <c r="I133" s="0">
-        <v>0.71617918548931503</v>
+        <v>0.85741104699317716</v>
       </c>
       <c r="J133" s="0">
-        <v>1.9272190829425182</v>
+        <v>0.1573111209068552</v>
       </c>
       <c r="K133" s="0">
-        <v>0.48708532332155025</v>
+        <v>0.2161412993937975</v>
       </c>
       <c r="L133" s="0">
-        <v>2.8853943858342186</v>
+        <v>0.23476024595854617</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>3.3557249438919081</v>
+        <v>0.52278498011203389</v>
       </c>
       <c r="B134" s="0">
         <v>1.3546000602357982</v>
@@ -5477,30 +5483,30 @@
         <v>0.46780397187482886</v>
       </c>
       <c r="F134" s="0">
-        <v>2.8367328349908907</v>
+        <v>0.10642141375464131</v>
       </c>
       <c r="G134" s="0">
-        <v>3.3557249438919081</v>
+        <v>1.1929159480202458</v>
       </c>
       <c r="H134" s="0">
-        <v>1.3546000602357982</v>
+        <v>1.2988909691654145</v>
       </c>
       <c r="I134" s="0">
-        <v>0.58063200383750013</v>
+        <v>0.74652838835826285</v>
       </c>
       <c r="J134" s="0">
-        <v>1.5686549638188434</v>
+        <v>0.15623058061613235</v>
       </c>
       <c r="K134" s="0">
-        <v>0.46780397187482886</v>
+        <v>0.33086131955453285</v>
       </c>
       <c r="L134" s="0">
-        <v>2.8367328349908907</v>
+        <v>0.23644487871604447</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>3.3718415139154132</v>
+        <v>0.50666841008852881</v>
       </c>
       <c r="B135" s="0">
         <v>0.92148483777067458</v>
@@ -5515,30 +5521,30 @@
         <v>0.46719859082363951</v>
       </c>
       <c r="F135" s="0">
-        <v>2.8016664992239813</v>
+        <v>0.14148774952155074</v>
       </c>
       <c r="G135" s="0">
-        <v>3.3718415139154132</v>
+        <v>0.81242028907883301</v>
       </c>
       <c r="H135" s="0">
-        <v>0.92148483777067458</v>
+        <v>0.37259664581672797</v>
       </c>
       <c r="I135" s="0">
-        <v>0.52142507952163231</v>
+        <v>0.68223728749136547</v>
       </c>
       <c r="J135" s="0">
-        <v>1.4375097115517455</v>
+        <v>0.15642531748106245</v>
       </c>
       <c r="K135" s="0">
-        <v>0.46719859082363951</v>
+        <v>0.319379182854993</v>
       </c>
       <c r="L135" s="0">
-        <v>2.8016664992239813</v>
+        <v>0.51117348092509851</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>3.3355765833187303</v>
+        <v>0.54293334068521171</v>
       </c>
       <c r="B136" s="0">
         <v>0.73908770937476065</v>
@@ -5553,30 +5559,30 @@
         <v>0.45302679458721679</v>
       </c>
       <c r="F136" s="0">
-        <v>2.6198136745945599</v>
+        <v>0.32334057415097206</v>
       </c>
       <c r="G136" s="0">
-        <v>3.3355765833187303</v>
+        <v>0.5494650322197937</v>
       </c>
       <c r="H136" s="0">
-        <v>0.73908770937476065</v>
+        <v>0.3715525601078008</v>
       </c>
       <c r="I136" s="0">
-        <v>0.48718331849140389</v>
+        <v>0.64410365941127701</v>
       </c>
       <c r="J136" s="0">
-        <v>1.345503729112806</v>
+        <v>0.15617593369233326</v>
       </c>
       <c r="K136" s="0">
-        <v>0.45302679458721679</v>
+        <v>0.41895274087150436</v>
       </c>
       <c r="L136" s="0">
-        <v>2.6198136745945599</v>
+        <v>0.51237093208837758</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>2.1721494826629266</v>
+        <v>1.7063604413410154</v>
       </c>
       <c r="B137" s="0">
         <v>0.53043624240839127</v>
@@ -5591,30 +5597,30 @@
         <v>1.2178785075265197</v>
       </c>
       <c r="F137" s="0">
-        <v>2.5487479060088334</v>
+        <v>0.39440634273669861</v>
       </c>
       <c r="G137" s="0">
-        <v>2.1721494826629266</v>
+        <v>0.27716783834147823</v>
       </c>
       <c r="H137" s="0">
-        <v>0.53043624240839127</v>
+        <v>0.22589327952275587</v>
       </c>
       <c r="I137" s="0">
-        <v>0.47107333575168242</v>
+        <v>0.59614321028001993</v>
       </c>
       <c r="J137" s="0">
-        <v>1.2810210199815608</v>
+        <v>0.15489995871957737</v>
       </c>
       <c r="K137" s="0">
-        <v>1.2178785075265197</v>
+        <v>0.38704087882672922</v>
       </c>
       <c r="L137" s="0">
-        <v>2.5487479060088334</v>
+        <v>1.1360672073231126</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>1.4319886233992982</v>
+        <v>2.446521300604644</v>
       </c>
       <c r="B138" s="0">
         <v>0.36563076504102215</v>
@@ -5629,30 +5635,30 @@
         <v>1.3806104427176484</v>
       </c>
       <c r="F138" s="0">
-        <v>2.3514426669689001</v>
+        <v>0.59171158177663186</v>
       </c>
       <c r="G138" s="0">
-        <v>1.4319886233992982</v>
+        <v>0.27484908544240094</v>
       </c>
       <c r="H138" s="0">
-        <v>0.36563076504102215</v>
+        <v>0.19641419311932393</v>
       </c>
       <c r="I138" s="0">
-        <v>0.45457272193110376</v>
+        <v>0.5478320426277179</v>
       </c>
       <c r="J138" s="0">
-        <v>1.2499999873891112</v>
+        <v>0.15768550396527092</v>
       </c>
       <c r="K138" s="0">
-        <v>1.3806104427176484</v>
+        <v>0.32415861807640367</v>
       </c>
       <c r="L138" s="0">
-        <v>2.3514426669689001</v>
+        <v>1.1730636094954978</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>1.0955814627244023</v>
+        <v>2.78292846127954</v>
       </c>
       <c r="B139" s="0">
         <v>0.22582036016744686</v>
@@ -5667,30 +5673,30 @@
         <v>1.341386141535758</v>
       </c>
       <c r="F139" s="0">
-        <v>2.3390531360339337</v>
+        <v>0.60410111271159828</v>
       </c>
       <c r="G139" s="0">
-        <v>1.0955814627244023</v>
+        <v>0.25504128733614723</v>
       </c>
       <c r="H139" s="0">
-        <v>0.22582036016744686</v>
+        <v>0.19546915983395347</v>
       </c>
       <c r="I139" s="0">
-        <v>0.42953953235234471</v>
+        <v>0.52278463397500574</v>
       </c>
       <c r="J139" s="0">
-        <v>1.2012042298022214</v>
+        <v>0.15793495800194579</v>
       </c>
       <c r="K139" s="0">
-        <v>1.341386141535758</v>
+        <v>0.29119813332127709</v>
       </c>
       <c r="L139" s="0">
-        <v>2.3390531360339337</v>
+        <v>1.1740332614194207</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>1.6892099984548758</v>
+        <v>2.1892999255490659</v>
       </c>
       <c r="B140" s="0">
         <v>0.22528769383224526</v>
@@ -5705,30 +5711,30 @@
         <v>1.4866260494408483</v>
       </c>
       <c r="F140" s="0">
-        <v>2.3477595703711236</v>
+        <v>0.5953946783744084</v>
       </c>
       <c r="G140" s="0">
-        <v>1.6892099984548758</v>
+        <v>0.2345700273110301</v>
       </c>
       <c r="H140" s="0">
-        <v>0.22528769383224526</v>
+        <v>0.20213378517780103</v>
       </c>
       <c r="I140" s="0">
-        <v>0.42121083617502603</v>
+        <v>0.49721706156371853</v>
       </c>
       <c r="J140" s="0">
-        <v>1.1641984903251434</v>
+        <v>0.1740102337879742</v>
       </c>
       <c r="K140" s="0">
-        <v>1.4866260494408483</v>
+        <v>0.27873702839080855</v>
       </c>
       <c r="L140" s="0">
-        <v>2.3477595703711236</v>
+        <v>1.0049179163082076</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>2.7320907300855244</v>
+        <v>1.1464191939184176</v>
       </c>
       <c r="B141" s="0">
         <v>0.22159098984125955</v>
@@ -5743,30 +5749,30 @@
         <v>1.7060127843299489</v>
       </c>
       <c r="F141" s="0">
-        <v>2.4194097617042445</v>
+        <v>0.52374448704128751</v>
       </c>
       <c r="G141" s="0">
-        <v>2.7320907300855244</v>
+        <v>0.21474038109212668</v>
       </c>
       <c r="H141" s="0">
-        <v>0.22159098984125955</v>
+        <v>0.21499146627255225</v>
       </c>
       <c r="I141" s="0">
-        <v>0.41688847581853217</v>
+        <v>0.48464628164322199</v>
       </c>
       <c r="J141" s="0">
-        <v>1.1320669801565442</v>
+        <v>0.90094825102261566</v>
       </c>
       <c r="K141" s="0">
-        <v>1.7060127843299489</v>
+        <v>0.27839050271535876</v>
       </c>
       <c r="L141" s="0">
-        <v>2.4194097617042445</v>
+        <v>0.81244514611254459</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>3.0562073103183987</v>
+        <v>0.82230261368554336</v>
       </c>
       <c r="B142" s="0">
         <v>0.21211889072190648</v>
@@ -5781,30 +5787,30 @@
         <v>1.5635973525558116</v>
       </c>
       <c r="F142" s="0">
-        <v>1.8647789178512162</v>
+        <v>1.0783753308943158</v>
       </c>
       <c r="G142" s="0">
-        <v>3.0562073103183987</v>
+        <v>0.20189424710732382</v>
       </c>
       <c r="H142" s="0">
-        <v>0.21211889072190648</v>
+        <v>0.21567559918787721</v>
       </c>
       <c r="I142" s="0">
-        <v>0.40662632650084357</v>
+        <v>0.47773991637377433</v>
       </c>
       <c r="J142" s="0">
-        <v>1.0882375967279063</v>
+        <v>0.90158555110824468</v>
       </c>
       <c r="K142" s="0">
-        <v>1.5635973525558116</v>
+        <v>0.25082446869769315</v>
       </c>
       <c r="L142" s="0">
-        <v>1.8647789178512162</v>
+        <v>0.81134957195338886</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>3.1239784332707821</v>
+        <v>0.75453149073315995</v>
       </c>
       <c r="B143" s="0">
         <v>0.2025541084579294</v>
@@ -5819,30 +5825,30 @@
         <v>1.2973771453089025</v>
       </c>
       <c r="F143" s="0">
-        <v>1.8633268324960264</v>
+        <v>1.0798274162495056</v>
       </c>
       <c r="G143" s="0">
-        <v>3.1239784332707821</v>
+        <v>0.19503770762556402</v>
       </c>
       <c r="H143" s="0">
-        <v>0.2025541084579294</v>
+        <v>0.23066969310322638</v>
       </c>
       <c r="I143" s="0">
-        <v>0.40449269756304035</v>
+        <v>0.47272683309154001</v>
       </c>
       <c r="J143" s="0">
-        <v>1.0584569720897989</v>
+        <v>0.99983606989205343</v>
       </c>
       <c r="K143" s="0">
-        <v>1.2973771453089025</v>
+        <v>0.23468918477949519</v>
       </c>
       <c r="L143" s="0">
-        <v>1.8633268324960264</v>
+        <v>0.54142021482597014</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>3.2036334654893692</v>
+        <v>0.67487645851457279</v>
       </c>
       <c r="B144" s="0">
         <v>0.20440212099143101</v>
@@ -5857,30 +5863,30 @@
         <v>1.0117158019767791</v>
       </c>
       <c r="F144" s="0">
-        <v>1.0303605466573951</v>
+        <v>1.9127937020881369</v>
       </c>
       <c r="G144" s="0">
-        <v>3.2036334654893692</v>
+        <v>0.18952540405049687</v>
       </c>
       <c r="H144" s="0">
-        <v>0.20440212099143101</v>
+        <v>0.21883598809061064</v>
       </c>
       <c r="I144" s="0">
-        <v>0.41211742594798845</v>
+        <v>0.46618492733559497</v>
       </c>
       <c r="J144" s="0">
-        <v>1.0375906140284237</v>
+        <v>0.9698625245293373</v>
       </c>
       <c r="K144" s="0">
-        <v>1.0117158019767791</v>
+        <v>0.23212955842469768</v>
       </c>
       <c r="L144" s="0">
-        <v>1.0303605466573951</v>
+        <v>0.49701145111788381</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>3.2796953071395247</v>
+        <v>0.59881461686441728</v>
       </c>
       <c r="B145" s="0">
         <v>1.0645691130263444</v>
@@ -5895,30 +5901,30 @@
         <v>0.76565298020158801</v>
       </c>
       <c r="F145" s="0">
-        <v>1.1833683876544172</v>
+        <v>1.7597858610911148</v>
       </c>
       <c r="G145" s="0">
-        <v>3.2796953071395247</v>
+        <v>0.18739312719504994</v>
       </c>
       <c r="H145" s="0">
-        <v>1.0645691130263444</v>
+        <v>0.21872996658655605</v>
       </c>
       <c r="I145" s="0">
-        <v>0.40805479312440868</v>
+        <v>0.46099997390942604</v>
       </c>
       <c r="J145" s="0">
-        <v>1.0204075706525195</v>
+        <v>0.96633475249298095</v>
       </c>
       <c r="K145" s="0">
-        <v>0.76565298020158801</v>
+        <v>0.20687303308623267</v>
       </c>
       <c r="L145" s="0">
-        <v>1.1833683876544172</v>
+        <v>0.4942015096175309</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>3.3642025101425159</v>
+        <v>0.51430741386142609</v>
       </c>
       <c r="B146" s="0">
         <v>1.0642919737558001</v>
@@ -5933,30 +5939,30 @@
         <v>0.6288246338274539</v>
       </c>
       <c r="F146" s="0">
-        <v>1.1847563290898284</v>
+        <v>1.7583979196557036</v>
       </c>
       <c r="G146" s="0">
-        <v>3.3642025101425159</v>
+        <v>0.18727736499614517</v>
       </c>
       <c r="H146" s="0">
-        <v>1.0642919737558001</v>
+        <v>0.22107985456589799</v>
       </c>
       <c r="I146" s="0">
-        <v>0.41593569145082898</v>
+        <v>0.45157560903502619</v>
       </c>
       <c r="J146" s="0">
-        <v>2.5900418779594476</v>
+        <v>0.88065024302781436</v>
       </c>
       <c r="K146" s="0">
-        <v>0.6288246338274539</v>
+        <v>0.22749134862610135</v>
       </c>
       <c r="L146" s="0">
-        <v>1.1847563290898284</v>
+        <v>0.4274356673962752</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>3.337956101846089</v>
+        <v>0.54055382215785297</v>
       </c>
       <c r="B147" s="0">
         <v>0.82245938778144501</v>
@@ -5971,30 +5977,30 @@
         <v>0.54467266087225097</v>
       </c>
       <c r="F147" s="0">
-        <v>2.2001446277331658</v>
+        <v>0.74300962101236623</v>
       </c>
       <c r="G147" s="0">
-        <v>3.337956101846089</v>
+        <v>0.18735099587112686</v>
       </c>
       <c r="H147" s="0">
-        <v>0.82245938778144501</v>
+        <v>0.28942725048779755</v>
       </c>
       <c r="I147" s="0">
-        <v>0.4695840978887903</v>
+        <v>0.44065253941650279</v>
       </c>
       <c r="J147" s="0">
-        <v>4.1267314789382485</v>
+        <v>0.63128107266631128</v>
       </c>
       <c r="K147" s="0">
-        <v>0.54467266087225097</v>
+        <v>0.21595141247431066</v>
       </c>
       <c r="L147" s="0">
-        <v>2.2001446277331658</v>
+        <v>0.40065810122426249</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>3.1116051806973481</v>
+        <v>0.76690474330659386</v>
       </c>
       <c r="B148" s="0">
         <v>0.44789334876845571</v>
@@ -6009,30 +6015,28 @@
         <v>0.47710156463692949</v>
       </c>
       <c r="F148" s="0">
-        <v>0.65588153539595695</v>
+        <v>2.2872727133495752</v>
       </c>
       <c r="G148" s="0">
-        <v>3.1116051806973481</v>
+        <v>0.18848809239762437</v>
       </c>
       <c r="H148" s="0">
-        <v>0.44789334876845571</v>
-      </c>
-      <c r="I148" s="0">
-        <v>0.48639743901539872</v>
-      </c>
+        <v>0.28927504473165311</v>
+      </c>
+      <c r="I148" s="0"/>
       <c r="J148" s="0">
-        <v>4.2214655687309612</v>
+        <v>0.51713866606056047</v>
       </c>
       <c r="K148" s="0">
-        <v>0.47710156463692949</v>
+        <v>0.20588877719095114</v>
       </c>
       <c r="L148" s="0">
-        <v>0.65588153539595695</v>
+        <v>0.39528692002042659</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>2.1775584234337577</v>
+        <v>1.7009515005701843</v>
       </c>
       <c r="B149" s="0">
         <v>0.33711661979472329</v>
@@ -6047,30 +6051,28 @@
         <v>0.43919754237407982</v>
       </c>
       <c r="F149" s="0">
-        <v>0.65630923212773862</v>
+        <v>2.2868450166177934</v>
       </c>
       <c r="G149" s="0">
-        <v>2.1775584234337577</v>
+        <v>0.18914078074146823</v>
       </c>
       <c r="H149" s="0">
-        <v>0.33711661979472329</v>
-      </c>
-      <c r="I149" s="0">
-        <v>0.42974185062055664</v>
-      </c>
+        <v>0.33457979584113884</v>
+      </c>
+      <c r="I149" s="0"/>
       <c r="J149" s="0">
-        <v>3.1140144268564027</v>
+        <v>0.51530103130274174</v>
       </c>
       <c r="K149" s="0">
-        <v>0.43919754237407982</v>
+        <v>0.18094476729595518</v>
       </c>
       <c r="L149" s="0">
-        <v>0.65630923212773862</v>
+        <v>0.39007336365428563</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>0.49626189700892254</v>
+        <v>3.3822480269950193</v>
       </c>
       <c r="B150" s="0">
         <v>0.35404071704425111</v>
@@ -6085,30 +6087,28 @@
         <v>0.42426177577985097</v>
       </c>
       <c r="F150" s="0">
-        <v>2.4477568718539531</v>
+        <v>0.49539737689157892</v>
       </c>
       <c r="G150" s="0">
-        <v>0.49626189700892254</v>
+        <v>0.19102942110407578</v>
       </c>
       <c r="H150" s="0">
-        <v>0.35404071704425111</v>
-      </c>
-      <c r="I150" s="0">
-        <v>0.42228523481866037</v>
-      </c>
+        <v>0.29949611714495294</v>
+      </c>
+      <c r="I150" s="0"/>
       <c r="J150" s="0">
-        <v>1.6542510814230378</v>
+        <v>0.32291190961943256</v>
       </c>
       <c r="K150" s="0">
-        <v>0.42426177577985097</v>
+        <v>0.17956926674004814</v>
       </c>
       <c r="L150" s="0">
-        <v>2.4477568718539531</v>
+        <v>0.3801723883356794</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>1.2186204142158961</v>
+        <v>2.6598895097880462</v>
       </c>
       <c r="B151" s="0">
         <v>0.34287806314378028</v>
@@ -6123,25 +6123,23 @@
         <v>0.41397311282454696</v>
       </c>
       <c r="F151" s="0">
-        <v>1.6659395273884408</v>
+        <v>1.2772147213570912</v>
       </c>
       <c r="G151" s="0">
-        <v>1.2186204142158961</v>
+        <v>0.19294678623601305</v>
       </c>
       <c r="H151" s="0">
-        <v>0.34287806314378028</v>
-      </c>
-      <c r="I151" s="0">
-        <v>0.41321853004225811</v>
-      </c>
+        <v>0.29538066620820697</v>
+      </c>
+      <c r="I151" s="0"/>
       <c r="J151" s="0">
-        <v>1.1507521893870729</v>
+        <v>0.32279659792561766</v>
       </c>
       <c r="K151" s="0">
-        <v>0.41397311282454696</v>
+        <v>0.13671137842373679</v>
       </c>
       <c r="L151" s="0">
-        <v>1.6659395273884408</v>
+        <v>0.37321487489318955</v>
       </c>
     </row>
   </sheetData>
@@ -6151,25 +6149,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E86761-B978-4B61-9047-18CF37A26579}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" customWidth="true"/>
-    <col min="2" max="2" width="8.44140625" customWidth="true"/>
-    <col min="3" max="3" width="11.109375" customWidth="true"/>
-    <col min="4" max="4" width="8.44140625" customWidth="true"/>
-    <col min="5" max="5" width="11.109375" customWidth="true"/>
-    <col min="6" max="6" width="8.44140625" customWidth="true"/>
-    <col min="7" max="7" width="8.44140625" customWidth="true"/>
-    <col min="8" max="8" width="9.33203125" customWidth="true"/>
-    <col min="9" max="9" width="9.33203125" customWidth="true"/>
-    <col min="10" max="10" width="9.33203125" customWidth="true"/>
-    <col min="11" max="11" width="9.33203125" customWidth="true"/>
-    <col min="12" max="12" width="9.33203125" customWidth="true"/>
-    <col min="13" max="13" width="9.33203125" customWidth="true"/>
+    <col min="2" max="2" width="11.5546875" customWidth="true"/>
+    <col min="3" max="3" width="3" customWidth="true"/>
+    <col min="4" max="4" width="3" customWidth="true"/>
+    <col min="5" max="5" width="3" customWidth="true"/>
+    <col min="6" max="6" width="11.5546875" customWidth="true"/>
+    <col min="7" max="7" width="2" customWidth="true"/>
+    <col min="8" max="8" width="3" customWidth="true"/>
+    <col min="9" max="9" width="2" customWidth="true"/>
+    <col min="10" max="10" width="11.5546875" customWidth="true"/>
+    <col min="11" max="11" width="3" customWidth="true"/>
+    <col min="12" max="12" width="3" customWidth="true"/>
+    <col min="13" max="13" width="3" customWidth="true"/>
+    <col min="14" max="14" width="2" customWidth="true"/>
+    <col min="15" max="15" width="11.5546875" customWidth="true"/>
+    <col min="16" max="16" width="2" customWidth="true"/>
+    <col min="17" max="17" width="2" customWidth="true"/>
+    <col min="18" max="18" width="2" customWidth="true"/>
+    <col min="19" max="19" width="10.5546875" customWidth="true"/>
+    <col min="20" max="20" width="3" customWidth="true"/>
+    <col min="21" max="21" width="3" customWidth="true"/>
+    <col min="22" max="22" width="3" customWidth="true"/>
+    <col min="23" max="23" width="3" customWidth="true"/>
+    <col min="24" max="24" width="11.5546875" customWidth="true"/>
+    <col min="25" max="25" width="3" customWidth="true"/>
+    <col min="26" max="26" width="3" customWidth="true"/>
+    <col min="27" max="27" width="3" customWidth="true"/>
+    <col min="28" max="28" width="3" customWidth="true"/>
+    <col min="29" max="29" width="11.5546875" customWidth="true"/>
+    <col min="30" max="30" width="2" customWidth="true"/>
+    <col min="31" max="31" width="3" customWidth="true"/>
+    <col min="32" max="32" width="3" customWidth="true"/>
+    <col min="33" max="33" width="2" customWidth="true"/>
+    <col min="34" max="34" width="11.5546875" customWidth="true"/>
+    <col min="35" max="35" width="2" customWidth="true"/>
+    <col min="36" max="36" width="2" customWidth="true"/>
+    <col min="37" max="37" width="2" customWidth="true"/>
+    <col min="38" max="38" width="2" customWidth="true"/>
+    <col min="39" max="39" width="11.5546875" customWidth="true"/>
+    <col min="40" max="40" width="2" customWidth="true"/>
+    <col min="41" max="41" width="2" customWidth="true"/>
+    <col min="42" max="42" width="2" customWidth="true"/>
+    <col min="43" max="43" width="12.5546875" customWidth="true"/>
+    <col min="44" max="44" width="2" customWidth="true"/>
+    <col min="45" max="45" width="2" customWidth="true"/>
+    <col min="46" max="46" width="2" customWidth="true"/>
+    <col min="47" max="47" width="2" customWidth="true"/>
+    <col min="48" max="48" width="12.5546875" customWidth="true"/>
+    <col min="49" max="49" width="3" customWidth="true"/>
+    <col min="50" max="50" width="3" customWidth="true"/>
+    <col min="51" max="51" width="3" customWidth="true"/>
+    <col min="52" max="52" width="11.5546875" customWidth="true"/>
+    <col min="53" max="53" width="2" customWidth="true"/>
+    <col min="54" max="54" width="2" customWidth="true"/>
+    <col min="55" max="55" width="2" customWidth="true"/>
+    <col min="56" max="56" width="2" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6177,80 +6218,492 @@
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+      <c r="AF1" s="0"/>
+      <c r="AG1" s="0"/>
+      <c r="AH1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="AI1" s="0"/>
+      <c r="AJ1" s="0"/>
+      <c r="AK1" s="0"/>
+      <c r="AL1" s="0"/>
+      <c r="AM1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="AN1" s="0"/>
+      <c r="AO1" s="0"/>
+      <c r="AP1" s="0"/>
+      <c r="AQ1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="AR1" s="0"/>
+      <c r="AS1" s="0"/>
+      <c r="AT1" s="0"/>
+      <c r="AU1" s="0"/>
+      <c r="AV1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="AW1" s="0"/>
+      <c r="AX1" s="0"/>
+      <c r="AY1" s="0"/>
+      <c r="AZ1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="BA1" s="0"/>
+      <c r="BB1" s="0"/>
+      <c r="BC1" s="0"/>
+      <c r="BD1" s="0"/>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="0">
-        <v>3.0436810346836829</v>
-      </c>
-      <c r="C2" s="0">
+        <v>2.9175561037110058</v>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0">
         <v>1.2961637144136138</v>
       </c>
-      <c r="D2" s="0">
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0">
         <v>1.300650723971549</v>
       </c>
-      <c r="E2" s="0">
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0">
         <v>6.5605457564908916</v>
       </c>
-      <c r="F2" s="0">
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0">
         <v>1.3321532901748596</v>
       </c>
-      <c r="G2" s="0">
-        <v>2.5223674147060944</v>
-      </c>
-      <c r="H2" s="0">
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0">
+        <v>2.5117570061346748</v>
+      </c>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0">
         <v>2.8087697944521226</v>
       </c>
-      <c r="I2" s="0">
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0">
         <v>2.2866814258458303</v>
       </c>
-      <c r="J2" s="0">
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+      <c r="AM2" s="0">
         <v>2.5222870894236817</v>
       </c>
-      <c r="K2" s="0">
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
+      <c r="AP2" s="0"/>
+      <c r="AQ2" s="0">
         <v>0.79420410711924772</v>
       </c>
-      <c r="L2" s="0">
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0"/>
+      <c r="AT2" s="0"/>
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0">
         <v>0.29252549150589119</v>
       </c>
-      <c r="M2" s="0">
+      <c r="AW2" s="0"/>
+      <c r="AX2" s="0"/>
+      <c r="AY2" s="0"/>
+      <c r="AZ2" s="0">
         <v>0.92977516700770602</v>
       </c>
+      <c r="BA2" s="0"/>
+      <c r="BB2" s="0"/>
+      <c r="BC2" s="0"/>
+      <c r="BD2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0">
+        <v>22</v>
+      </c>
+      <c r="C3" s="0">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0">
+        <v>19</v>
+      </c>
+      <c r="E3" s="0">
+        <v>19</v>
+      </c>
+      <c r="F3" s="0">
+        <v>12</v>
+      </c>
+      <c r="G3" s="0">
+        <v>8</v>
+      </c>
+      <c r="H3" s="0">
+        <v>11</v>
+      </c>
+      <c r="I3" s="0">
+        <v>7</v>
+      </c>
+      <c r="J3" s="0">
+        <v>14</v>
+      </c>
+      <c r="K3" s="0">
+        <v>15</v>
+      </c>
+      <c r="L3" s="0">
+        <v>16</v>
+      </c>
+      <c r="M3" s="0">
+        <v>18</v>
+      </c>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0">
+        <v>4</v>
+      </c>
+      <c r="P3" s="0">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>3</v>
+      </c>
+      <c r="R3" s="0">
+        <v>3</v>
+      </c>
+      <c r="S3" s="0">
+        <v>15</v>
+      </c>
+      <c r="T3" s="0">
+        <v>16</v>
+      </c>
+      <c r="U3" s="0">
+        <v>19</v>
+      </c>
+      <c r="V3" s="0">
+        <v>16</v>
+      </c>
+      <c r="W3" s="0">
+        <v>16</v>
+      </c>
+      <c r="X3" s="0">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>21</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>8</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>7</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>11</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>11</v>
+      </c>
+      <c r="AG3" s="0"/>
+      <c r="AH3" s="0">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="0">
+        <v>9</v>
+      </c>
+      <c r="AJ3" s="0">
+        <v>6</v>
+      </c>
+      <c r="AK3" s="0">
+        <v>8</v>
+      </c>
+      <c r="AL3" s="0">
+        <v>6</v>
+      </c>
+      <c r="AM3" s="0">
+        <v>5</v>
+      </c>
+      <c r="AN3" s="0">
+        <v>4</v>
+      </c>
+      <c r="AO3" s="0">
+        <v>5</v>
+      </c>
+      <c r="AP3" s="0">
+        <v>5</v>
+      </c>
+      <c r="AQ3" s="0">
+        <v>4</v>
+      </c>
+      <c r="AR3" s="0">
+        <v>6</v>
+      </c>
+      <c r="AS3" s="0">
+        <v>4</v>
+      </c>
+      <c r="AT3" s="0">
+        <v>4</v>
+      </c>
+      <c r="AU3" s="0">
+        <v>6</v>
+      </c>
+      <c r="AV3" s="0">
+        <v>15</v>
+      </c>
+      <c r="AW3" s="0">
+        <v>14</v>
+      </c>
+      <c r="AX3" s="0">
+        <v>14</v>
+      </c>
+      <c r="AY3" s="0">
+        <v>15</v>
+      </c>
+      <c r="AZ3" s="0">
+        <v>4</v>
+      </c>
+      <c r="BA3" s="0">
+        <v>8</v>
+      </c>
+      <c r="BB3" s="0">
+        <v>6</v>
+      </c>
+      <c r="BC3" s="0">
+        <v>5</v>
+      </c>
+      <c r="BD3" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0">
+        <v>30</v>
+      </c>
+      <c r="C4" s="0">
+        <v>29</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0">
+        <v>0</v>
+      </c>
+      <c r="M4" s="0">
+        <v>0</v>
+      </c>
+      <c r="N4" s="0">
+        <v>0</v>
+      </c>
+      <c r="O4" s="0">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="0">
+        <v>0</v>
+      </c>
+      <c r="R4" s="0">
+        <v>0</v>
+      </c>
+      <c r="S4" s="0">
+        <v>32</v>
+      </c>
+      <c r="T4" s="0">
+        <v>30</v>
+      </c>
+      <c r="U4" s="0">
+        <v>30</v>
+      </c>
+      <c r="V4" s="0">
+        <v>30</v>
+      </c>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="0">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="0">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="0">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="0">
+        <v>30</v>
+      </c>
+      <c r="AI4" s="0">
+        <v>30</v>
+      </c>
+      <c r="AJ4" s="0">
+        <v>30</v>
+      </c>
+      <c r="AK4" s="0">
+        <v>30</v>
+      </c>
+      <c r="AL4" s="0"/>
+      <c r="AM4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="0">
+        <v>30</v>
+      </c>
+      <c r="AR4" s="0">
+        <v>30</v>
+      </c>
+      <c r="AS4" s="0">
+        <v>30</v>
+      </c>
+      <c r="AT4" s="0">
+        <v>30</v>
+      </c>
+      <c r="AU4" s="0"/>
+      <c r="AV4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="0">
+        <v>30</v>
+      </c>
+      <c r="BA4" s="0">
+        <v>30</v>
+      </c>
+      <c r="BB4" s="0">
+        <v>30</v>
+      </c>
+      <c r="BC4" s="0">
+        <v>31</v>
+      </c>
+      <c r="BD4" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
